--- a/German/Clase 14/Performance clase 14.xlsx
+++ b/German/Clase 14/Performance clase 14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\Clase 14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA3F37-83E4-4D46-B636-14748E1067BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B5EB5-F4C4-4210-9474-A4DDC15B37AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fechas del Experimento" sheetId="6" r:id="rId1"/>
@@ -1559,6 +1559,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1620,9 +1623,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -30051,86 +30051,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="59">
         <v>2019</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="58">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="59">
         <v>2020</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="61">
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62">
         <v>2021</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
@@ -30282,13 +30282,13 @@
       <c r="O4" s="48">
         <v>1</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
       <c r="U4" s="48">
         <v>1</v>
       </c>
@@ -30342,11 +30342,11 @@
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="70"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -30382,11 +30382,11 @@
       <c r="M6" s="15"/>
       <c r="N6" s="14"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="70"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
@@ -30446,11 +30446,11 @@
       <c r="O7" s="48">
         <v>1</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="69"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="70"/>
       <c r="U7" s="48">
         <v>1</v>
       </c>
@@ -30508,11 +30508,11 @@
       <c r="M8" s="18"/>
       <c r="N8" s="16"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="72"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
@@ -30600,24 +30600,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="G1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="G2" s="73" t="s">
+      <c r="C2" s="74"/>
+      <c r="G2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -30813,7 +30813,7 @@
       <selection activeCell="E8" sqref="E8"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30839,80 +30839,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="Y1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="E2" s="73" t="s">
+      <c r="C2" s="74"/>
+      <c r="E2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="H2" s="73" t="s">
+      <c r="F2" s="74"/>
+      <c r="H2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="K2" s="73" t="s">
+      <c r="I2" s="74"/>
+      <c r="K2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="74"/>
+      <c r="N2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="Y2" s="73" t="s">
+      <c r="O2" s="74"/>
+      <c r="Y2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AB2" s="73" t="s">
+      <c r="Z2" s="74"/>
+      <c r="AB2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="73"/>
-      <c r="AE2" s="73" t="s">
+      <c r="AC2" s="74"/>
+      <c r="AE2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="73"/>
-      <c r="AH2" s="73" t="s">
+      <c r="AF2" s="74"/>
+      <c r="AH2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="73"/>
-      <c r="AK2" s="73" t="s">
+      <c r="AI2" s="74"/>
+      <c r="AK2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="73"/>
+      <c r="AL2" s="74"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -31041,7 +31041,7 @@
       <c r="A7" s="2">
         <v>9500</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="57">
         <v>128.875</v>
       </c>
       <c r="C7" s="3"/>
@@ -31061,7 +31061,7 @@
       <c r="A8" s="2">
         <v>10000</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="57">
         <v>128.315</v>
       </c>
       <c r="C8" s="3"/>
@@ -31081,7 +31081,7 @@
       <c r="A9" s="2">
         <v>10500</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="57">
         <v>124.815</v>
       </c>
       <c r="C9" s="3"/>
@@ -31101,7 +31101,7 @@
       <c r="A10" s="2">
         <v>11000</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="57">
         <v>121.455</v>
       </c>
       <c r="C10" s="3"/>
@@ -31121,7 +31121,7 @@
       <c r="A11" s="2">
         <v>11500</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="57">
         <v>120.405</v>
       </c>
       <c r="C11" s="3"/>
@@ -31141,7 +31141,7 @@
       <c r="A12" s="2">
         <v>12000</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="57">
         <v>122.505</v>
       </c>
       <c r="C12" s="3"/>
@@ -31161,7 +31161,7 @@
       <c r="A13" s="2">
         <v>12500</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="57">
         <v>119.77500000000001</v>
       </c>
       <c r="C13" s="3"/>
@@ -31181,7 +31181,7 @@
       <c r="A14" s="2">
         <v>13000</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="57">
         <v>116.34399999999999</v>
       </c>
       <c r="C14" s="3"/>
@@ -31201,7 +31201,7 @@
       <c r="A15" s="2">
         <v>13500</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="57">
         <v>115.994</v>
       </c>
       <c r="C15" s="3"/>
@@ -31366,23 +31366,23 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="31"/>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -32713,33 +32713,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="J1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="J1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="T1" s="75" t="s">
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="T1" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="T2" s="20" t="s">
@@ -32763,24 +32763,24 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="J3" s="76" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="J3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
       <c r="T3" s="20" t="s">
         <v>60</v>
       </c>
@@ -33648,24 +33648,24 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="J27" s="76" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="J27" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -34427,8 +34427,11 @@
   </sheetPr>
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34651,430 +34654,430 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22">
         <v>1060</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="22">
         <v>3475627</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="22">
         <v>-100</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="22">
         <v>-1</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="22">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="22">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="22">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="22">
         <v>31</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="24">
         <v>561</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="22">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="22">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="22">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="22">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="22">
         <v>50</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="22">
         <v>279511</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="24">
         <v>295</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="24">
         <v>42234</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="22">
         <v>11603</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="23">
         <v>163984557221389</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="22">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="22">
         <v>1060</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="22">
         <v>3475627</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="22">
         <v>-100</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="22">
         <v>-1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="22">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="22">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="22">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="22">
         <v>31</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="24">
         <v>2147</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="22">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="22">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="22">
         <v>1</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="22">
         <v>1</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="22">
         <v>50</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="22">
         <v>279511</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="24">
         <v>331</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="24">
         <v>22431</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="22">
         <v>11483</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="23">
         <v>163900739130435</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="22">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <v>1060</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>3475627</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="22">
         <v>-100</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="22">
         <v>-1</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="22">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="22">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="22">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="22">
         <v>31</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="24">
         <v>799</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="22">
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="22">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="22">
         <v>1</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="22">
         <v>1</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="22">
         <v>50</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="22">
         <v>279511</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="24">
         <v>247</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="24">
         <v>49996</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="22">
         <v>13296</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="23">
         <v>162908729635182</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="22">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22">
         <v>1060</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>3475627</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="22">
         <v>-100</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="22">
         <v>-1</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="22">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="22">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="22">
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="22">
         <v>31</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="24">
         <v>2985</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="22">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="22">
         <v>1</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="22">
         <v>1</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="22">
         <v>1</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="22">
         <v>50</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="22">
         <v>279511</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="24">
         <v>356</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="24">
         <v>49985</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="22">
         <v>12615</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="23">
         <v>162833170914543</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="22">
         <v>25</v>
       </c>
     </row>

--- a/German/Clase 14/Performance clase 14.xlsx
+++ b/German/Clase 14/Performance clase 14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\Clase 14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B5EB5-F4C4-4210-9474-A4DDC15B37AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD85FF-DC6B-4A5D-B558-D14F0ADE9869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fechas del Experimento" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
   <si>
     <t>Estímulos</t>
   </si>
@@ -197,88 +197,7 @@
     <t>Parámetros</t>
   </si>
   <si>
-    <t>boosting</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>cols</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>objective</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>first_metric_only</t>
-  </si>
-  <si>
-    <t>boost_from_average</t>
-  </si>
-  <si>
-    <t>feature_pre_filter</t>
-  </si>
-  <si>
-    <t>force_row_wise</t>
-  </si>
-  <si>
-    <t>verbosity</t>
-  </si>
-  <si>
-    <t>max_depth</t>
-  </si>
-  <si>
-    <t>min_gain_to_split</t>
-  </si>
-  <si>
-    <t>min_sum_hessian_in_leaf</t>
-  </si>
-  <si>
-    <t>lambda_l1</t>
-  </si>
-  <si>
-    <t>lambda_l2</t>
-  </si>
-  <si>
-    <t>max_bin</t>
-  </si>
-  <si>
     <t>num_iterations</t>
-  </si>
-  <si>
-    <t>bagging_fraction</t>
-  </si>
-  <si>
-    <t>pos_bagging_fraction</t>
-  </si>
-  <si>
-    <t>neg_bagging_fraction</t>
-  </si>
-  <si>
-    <t>is_unbalance</t>
-  </si>
-  <si>
-    <t>scale_pos_weight</t>
-  </si>
-  <si>
-    <t>drop_rate</t>
-  </si>
-  <si>
-    <t>max_drop</t>
-  </si>
-  <si>
-    <t>skip_drop</t>
-  </si>
-  <si>
-    <t>extra_trees</t>
-  </si>
-  <si>
-    <t>seed</t>
   </si>
   <si>
     <t>learning_rate</t>
@@ -291,135 +210,6 @@
   </si>
   <si>
     <t>min_data_in_leaf</t>
-  </si>
-  <si>
-    <t>estimulos</t>
-  </si>
-  <si>
-    <t>ganancia</t>
-  </si>
-  <si>
-    <t>iteracion_bayesiana</t>
-  </si>
-  <si>
-    <t>gbdt</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.13694120913744</t>
-  </si>
-  <si>
-    <t>0.511200065682206</t>
-  </si>
-  <si>
-    <t>0.10871455284534</t>
-  </si>
-  <si>
-    <t>0.383395616570779</t>
-  </si>
-  <si>
-    <t>0.153177819112316</t>
-  </si>
-  <si>
-    <t>0.276715104630857</t>
-  </si>
-  <si>
-    <t>0.271073784258333</t>
-  </si>
-  <si>
-    <t>0.78185350669577</t>
-  </si>
-  <si>
-    <t>0.238883439445053</t>
-  </si>
-  <si>
-    <t>0.644795008537039</t>
-  </si>
-  <si>
-    <t>0.0900664854224306</t>
-  </si>
-  <si>
-    <t>0.0754280283300613</t>
-  </si>
-  <si>
-    <t>0.186720657731057</t>
-  </si>
-  <si>
-    <t>0.696503204608016</t>
-  </si>
-  <si>
-    <t>0.0429818473849446</t>
-  </si>
-  <si>
-    <t>0.840359180488013</t>
-  </si>
-  <si>
-    <t>0.166457323828363</t>
-  </si>
-  <si>
-    <t>0.380679800144862</t>
-  </si>
-  <si>
-    <t>0.0768787990038982</t>
-  </si>
-  <si>
-    <t>0.575646079617873</t>
-  </si>
-  <si>
-    <t>0.199060535248718</t>
-  </si>
-  <si>
-    <t>0.482284466433484</t>
-  </si>
-  <si>
-    <t>0.218087663662154</t>
-  </si>
-  <si>
-    <t>0.0349420346751867</t>
-  </si>
-  <si>
-    <t>0.247791156655876</t>
-  </si>
-  <si>
-    <t>0.936292199923046</t>
-  </si>
-  <si>
-    <t>0.0278307219524868</t>
-  </si>
-  <si>
-    <t>0.240808322774392</t>
-  </si>
-  <si>
-    <t>0.0708034699544078</t>
-  </si>
-  <si>
-    <t>0.142060961340176</t>
-  </si>
-  <si>
-    <t>0.291614252373693</t>
-  </si>
-  <si>
-    <t>0.946646284638409</t>
   </si>
   <si>
     <t>Final Train</t>
@@ -459,504 +249,6 @@
   </si>
   <si>
     <t>Pandemia</t>
-  </si>
-  <si>
-    <t>20231108 154239</t>
-  </si>
-  <si>
-    <t>20231108 163404</t>
-  </si>
-  <si>
-    <t>20231108 170820</t>
-  </si>
-  <si>
-    <t>20231108 172755</t>
-  </si>
-  <si>
-    <t>20231108 181336</t>
-  </si>
-  <si>
-    <t>20231108 184616</t>
-  </si>
-  <si>
-    <t>20231108 191205</t>
-  </si>
-  <si>
-    <t>20231108 200941</t>
-  </si>
-  <si>
-    <t>20231108 210000</t>
-  </si>
-  <si>
-    <t>20231108 223808</t>
-  </si>
-  <si>
-    <t>20231108 232432</t>
-  </si>
-  <si>
-    <t>20231109 000053</t>
-  </si>
-  <si>
-    <t>20231109 002200</t>
-  </si>
-  <si>
-    <t>20231109 022245</t>
-  </si>
-  <si>
-    <t>20231109 031809</t>
-  </si>
-  <si>
-    <t>20231109 034107</t>
-  </si>
-  <si>
-    <t>20231109 043328</t>
-  </si>
-  <si>
-    <t>0.150919599926709</t>
-  </si>
-  <si>
-    <t>0.649521529560216</t>
-  </si>
-  <si>
-    <t>20231109 052854</t>
-  </si>
-  <si>
-    <t>0.0699710224932274</t>
-  </si>
-  <si>
-    <t>0.399463187102189</t>
-  </si>
-  <si>
-    <t>20231109 060453</t>
-  </si>
-  <si>
-    <t>0.124666412025052</t>
-  </si>
-  <si>
-    <t>0.191652743642873</t>
-  </si>
-  <si>
-    <t>20231109 064756</t>
-  </si>
-  <si>
-    <t>0.106933988801762</t>
-  </si>
-  <si>
-    <t>0.410167137196264</t>
-  </si>
-  <si>
-    <t>20231109 075231</t>
-  </si>
-  <si>
-    <t>0.0931284121540642</t>
-  </si>
-  <si>
-    <t>0.341922107606885</t>
-  </si>
-  <si>
-    <t>20231109 095249</t>
-  </si>
-  <si>
-    <t>0.0200497093534557</t>
-  </si>
-  <si>
-    <t>0.356563234958801</t>
-  </si>
-  <si>
-    <t>20231109 131619</t>
-  </si>
-  <si>
-    <t>0.0200024436078638</t>
-  </si>
-  <si>
-    <t>0.369055150529493</t>
-  </si>
-  <si>
-    <t>20231109 163241</t>
-  </si>
-  <si>
-    <t>0.0200062379382852</t>
-  </si>
-  <si>
-    <t>0.317031826081888</t>
-  </si>
-  <si>
-    <t>20231109 201319</t>
-  </si>
-  <si>
-    <t>0.0200185122629107</t>
-  </si>
-  <si>
-    <t>0.427183699009456</t>
-  </si>
-  <si>
-    <t>20231109 204626</t>
-  </si>
-  <si>
-    <t>0.0200302938552546</t>
-  </si>
-  <si>
-    <t>0.118157216964097</t>
-  </si>
-  <si>
-    <t>20231110 010238</t>
-  </si>
-  <si>
-    <t>0.0200456177073775</t>
-  </si>
-  <si>
-    <t>0.501535689414703</t>
-  </si>
-  <si>
-    <t>20231110 024144</t>
-  </si>
-  <si>
-    <t>0.0200109613902827</t>
-  </si>
-  <si>
-    <t>0.948631391399936</t>
-  </si>
-  <si>
-    <t>20231110 043644</t>
-  </si>
-  <si>
-    <t>0.0200332208504161</t>
-  </si>
-  <si>
-    <t>0.677890679169388</t>
-  </si>
-  <si>
-    <t>20231110 075213</t>
-  </si>
-  <si>
-    <t>0.0200310005740484</t>
-  </si>
-  <si>
-    <t>0.442654811222386</t>
-  </si>
-  <si>
-    <t>20231110 102403</t>
-  </si>
-  <si>
-    <t>0.0200200050398915</t>
-  </si>
-  <si>
-    <t>0.310585765163549</t>
-  </si>
-  <si>
-    <t>20231110 105933</t>
-  </si>
-  <si>
-    <t>0.020026725511702</t>
-  </si>
-  <si>
-    <t>0.319415385490926</t>
-  </si>
-  <si>
-    <t>20231110 143854</t>
-  </si>
-  <si>
-    <t>0.0200220212292129</t>
-  </si>
-  <si>
-    <t>0.51288811593979</t>
-  </si>
-  <si>
-    <t>20231110 165101</t>
-  </si>
-  <si>
-    <t>0.0200955636430517</t>
-  </si>
-  <si>
-    <t>0.284966255126795</t>
-  </si>
-  <si>
-    <t>20231110 195348</t>
-  </si>
-  <si>
-    <t>0.0200235338183377</t>
-  </si>
-  <si>
-    <t>0.571309340374125</t>
-  </si>
-  <si>
-    <t>20231110 202228</t>
-  </si>
-  <si>
-    <t>0.0202652065091095</t>
-  </si>
-  <si>
-    <t>0.027463157106789</t>
-  </si>
-  <si>
-    <t>20231110 223352</t>
-  </si>
-  <si>
-    <t>0.0203191334496046</t>
-  </si>
-  <si>
-    <t>0.279734961023958</t>
-  </si>
-  <si>
-    <t>20231111 001643</t>
-  </si>
-  <si>
-    <t>0.0484498569048209</t>
-  </si>
-  <si>
-    <t>0.358041523396854</t>
-  </si>
-  <si>
-    <t>20231111 023102</t>
-  </si>
-  <si>
-    <t>0.0253641002678609</t>
-  </si>
-  <si>
-    <t>0.367193797812405</t>
-  </si>
-  <si>
-    <t>20231111 050508</t>
-  </si>
-  <si>
-    <t>0.023688966063097</t>
-  </si>
-  <si>
-    <t>0.406232255653876</t>
-  </si>
-  <si>
-    <t>20231111 053652</t>
-  </si>
-  <si>
-    <t>0.10541988729076</t>
-  </si>
-  <si>
-    <t>0.894190483794578</t>
-  </si>
-  <si>
-    <t>20231111 062314</t>
-  </si>
-  <si>
-    <t>0.0987763492683858</t>
-  </si>
-  <si>
-    <t>0.28882473012031</t>
-  </si>
-  <si>
-    <t>20231111 070349</t>
-  </si>
-  <si>
-    <t>0.0201065780676226</t>
-  </si>
-  <si>
-    <t>0.0815413268357012</t>
-  </si>
-  <si>
-    <t>20231111 085100</t>
-  </si>
-  <si>
-    <t>0.0498154940962305</t>
-  </si>
-  <si>
-    <t>0.51667112175792</t>
-  </si>
-  <si>
-    <t>20231111 093207</t>
-  </si>
-  <si>
-    <t>0.124459252402726</t>
-  </si>
-  <si>
-    <t>0.309761137443855</t>
-  </si>
-  <si>
-    <t>20231111 104913</t>
-  </si>
-  <si>
-    <t>0.104743701955437</t>
-  </si>
-  <si>
-    <t>0.381067261848911</t>
-  </si>
-  <si>
-    <t>20231111 113601</t>
-  </si>
-  <si>
-    <t>0.110487228690998</t>
-  </si>
-  <si>
-    <t>0.587036102303042</t>
-  </si>
-  <si>
-    <t>20231111 120705</t>
-  </si>
-  <si>
-    <t>0.109574046756045</t>
-  </si>
-  <si>
-    <t>0.829602772651658</t>
-  </si>
-  <si>
-    <t>20231111 155657</t>
-  </si>
-  <si>
-    <t>0.0202502631664864</t>
-  </si>
-  <si>
-    <t>0.575989840169381</t>
-  </si>
-  <si>
-    <t>20231111 172736</t>
-  </si>
-  <si>
-    <t>0.0345659103442813</t>
-  </si>
-  <si>
-    <t>0.279888352003939</t>
-  </si>
-  <si>
-    <t>20231111 194131</t>
-  </si>
-  <si>
-    <t>0.0203510526826541</t>
-  </si>
-  <si>
-    <t>0.59967338896361</t>
-  </si>
-  <si>
-    <t>20231111 224416</t>
-  </si>
-  <si>
-    <t>0.0202023736505433</t>
-  </si>
-  <si>
-    <t>0.220543561621428</t>
-  </si>
-  <si>
-    <t>20231112 025146</t>
-  </si>
-  <si>
-    <t>0.020026938522828</t>
-  </si>
-  <si>
-    <t>0.401976779048526</t>
-  </si>
-  <si>
-    <t>20231112 041654</t>
-  </si>
-  <si>
-    <t>0.0864012002173474</t>
-  </si>
-  <si>
-    <t>0.486295689500959</t>
-  </si>
-  <si>
-    <t>20231112 050910</t>
-  </si>
-  <si>
-    <t>0.0843024576709326</t>
-  </si>
-  <si>
-    <t>0.454581025124445</t>
-  </si>
-  <si>
-    <t>20231112 055523</t>
-  </si>
-  <si>
-    <t>0.11562187978179</t>
-  </si>
-  <si>
-    <t>0.208978107458956</t>
-  </si>
-  <si>
-    <t>20231112 063354</t>
-  </si>
-  <si>
-    <t>0.0343200950238001</t>
-  </si>
-  <si>
-    <t>0.146639353150355</t>
-  </si>
-  <si>
-    <t>20231112 072410</t>
-  </si>
-  <si>
-    <t>0.0200130052818905</t>
-  </si>
-  <si>
-    <t>0.108237242214264</t>
-  </si>
-  <si>
-    <t>20231112 082748</t>
-  </si>
-  <si>
-    <t>0.0506215495519403</t>
-  </si>
-  <si>
-    <t>0.235572865063253</t>
-  </si>
-  <si>
-    <t>20231112 090505</t>
-  </si>
-  <si>
-    <t>0.112641126164828</t>
-  </si>
-  <si>
-    <t>0.0509661067652242</t>
-  </si>
-  <si>
-    <t>20231112 103300</t>
-  </si>
-  <si>
-    <t>0.044781077842626</t>
-  </si>
-  <si>
-    <t>0.548968068211159</t>
-  </si>
-  <si>
-    <t>20231112 113402</t>
-  </si>
-  <si>
-    <t>0.0292608373298842</t>
-  </si>
-  <si>
-    <t>0.136781998386116</t>
-  </si>
-  <si>
-    <t>20231112 130443</t>
-  </si>
-  <si>
-    <t>0.0370106867374484</t>
-  </si>
-  <si>
-    <t>0.127814392932029</t>
-  </si>
-  <si>
-    <t>20231112 134057</t>
-  </si>
-  <si>
-    <t>0.158241150441061</t>
-  </si>
-  <si>
-    <t>0.288763424908378</t>
-  </si>
-  <si>
-    <t>20231112 153016</t>
-  </si>
-  <si>
-    <t>0.0268374241680421</t>
-  </si>
-  <si>
-    <t>0.863448120010119</t>
-  </si>
-  <si>
-    <t>20231112 171347</t>
-  </si>
-  <si>
-    <t>0.0314763269263399</t>
-  </si>
-  <si>
-    <t>0.281734982085869</t>
   </si>
   <si>
     <t xml:space="preserve">Demora BO: </t>
@@ -4425,33 +3717,6 @@
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>128.875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128.315</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>124.815</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121.455</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120.405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122.505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>119.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>116.34399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>115.994</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13575,30 +12840,6 @@
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>128.875</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>128.315</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="#,##0.00">
-                  <c:v>124.815</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0.00">
-                  <c:v>121.455</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="#,##0.00">
-                  <c:v>120.405</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>122.505</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0.00">
-                  <c:v>119.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0.00">
-                  <c:v>116.34399999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -30052,7 +29293,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -30164,10 +29405,10 @@
         <v>33</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="L3" s="44" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="M3" s="45" t="s">
         <v>34</v>
@@ -30200,10 +29441,10 @@
         <v>33</v>
       </c>
       <c r="W3" s="44" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="X3" s="44" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="45" t="s">
         <v>34</v>
@@ -30283,7 +29524,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="65" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="66"/>
       <c r="R4" s="66"/>
@@ -30406,7 +29647,7 @@
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
@@ -30532,35 +29773,35 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -30813,7 +30054,7 @@
       <selection activeCell="E8" sqref="E8"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31041,9 +30282,7 @@
       <c r="A7" s="2">
         <v>9500</v>
       </c>
-      <c r="B7" s="57">
-        <v>128.875</v>
-      </c>
+      <c r="B7" s="57"/>
       <c r="C7" s="3"/>
       <c r="D7" s="25"/>
       <c r="F7" s="25"/>
@@ -31061,9 +30300,7 @@
       <c r="A8" s="2">
         <v>10000</v>
       </c>
-      <c r="B8" s="57">
-        <v>128.315</v>
-      </c>
+      <c r="B8" s="57"/>
       <c r="C8" s="3"/>
       <c r="D8" s="25"/>
       <c r="F8" s="25"/>
@@ -31081,9 +30318,7 @@
       <c r="A9" s="2">
         <v>10500</v>
       </c>
-      <c r="B9" s="57">
-        <v>124.815</v>
-      </c>
+      <c r="B9" s="57"/>
       <c r="C9" s="3"/>
       <c r="D9" s="25"/>
       <c r="F9" s="25"/>
@@ -31101,9 +30336,7 @@
       <c r="A10" s="2">
         <v>11000</v>
       </c>
-      <c r="B10" s="57">
-        <v>121.455</v>
-      </c>
+      <c r="B10" s="57"/>
       <c r="C10" s="3"/>
       <c r="D10" s="25"/>
       <c r="F10" s="25"/>
@@ -31121,9 +30354,7 @@
       <c r="A11" s="2">
         <v>11500</v>
       </c>
-      <c r="B11" s="57">
-        <v>120.405</v>
-      </c>
+      <c r="B11" s="57"/>
       <c r="C11" s="3"/>
       <c r="D11" s="25"/>
       <c r="F11" s="25"/>
@@ -31141,9 +30372,7 @@
       <c r="A12" s="2">
         <v>12000</v>
       </c>
-      <c r="B12" s="57">
-        <v>122.505</v>
-      </c>
+      <c r="B12" s="57"/>
       <c r="C12" s="3"/>
       <c r="D12" s="25"/>
       <c r="F12" s="25"/>
@@ -31161,9 +30390,7 @@
       <c r="A13" s="2">
         <v>12500</v>
       </c>
-      <c r="B13" s="57">
-        <v>119.77500000000001</v>
-      </c>
+      <c r="B13" s="57"/>
       <c r="C13" s="3"/>
       <c r="D13" s="25"/>
       <c r="F13" s="25"/>
@@ -31181,9 +30408,7 @@
       <c r="A14" s="2">
         <v>13000</v>
       </c>
-      <c r="B14" s="57">
-        <v>116.34399999999999</v>
-      </c>
+      <c r="B14" s="57"/>
       <c r="C14" s="3"/>
       <c r="D14" s="25"/>
       <c r="F14" s="25"/>
@@ -31201,9 +30426,7 @@
       <c r="A15" s="2">
         <v>13500</v>
       </c>
-      <c r="B15" s="57">
-        <v>115.994</v>
-      </c>
+      <c r="B15" s="57"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -31376,7 +30599,7 @@
       <c r="G1" s="74"/>
       <c r="H1" s="31"/>
       <c r="I1" s="74" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="J1" s="74"/>
       <c r="K1" s="74"/>
@@ -31386,41 +30609,41 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="28" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>7</v>
@@ -32732,7 +31955,7 @@
       <c r="O1" s="78"/>
       <c r="P1" s="78"/>
       <c r="T1" s="76" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="U1" s="76"/>
       <c r="V1" s="76"/>
@@ -32782,11 +32005,11 @@
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="T3" s="20" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="U3" s="21">
         <f>+'BO Base Sem 1'!R2</f>
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="V3" s="21" t="e">
         <f>+#REF!</f>
@@ -32853,11 +32076,11 @@
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="21" t="str">
+        <v>44</v>
+      </c>
+      <c r="U4" s="21">
         <f>+'BO Base Sem 1'!AC2</f>
-        <v>0.0292608373298842</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="e">
         <f>+#REF!</f>
@@ -32933,11 +32156,11 @@
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="21" t="str">
+        <v>45</v>
+      </c>
+      <c r="U5" s="21">
         <f>+'BO Base Sem 1'!AD2</f>
-        <v>0.136781998386116</v>
+        <v>0</v>
       </c>
       <c r="V5" s="21" t="e">
         <f>+#REF!</f>
@@ -33013,11 +32236,11 @@
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="20" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="U6" s="21">
         <f>+'BO Base Sem 1'!AF2</f>
-        <v>43158</v>
+        <v>0</v>
       </c>
       <c r="V6" s="21" t="e">
         <f>+#REF!</f>
@@ -33093,11 +32316,11 @@
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="20" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="U7" s="21">
         <f>+'BO Base Sem 1'!AE2</f>
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="V7" s="21" t="e">
         <f>+#REF!</f>
@@ -33121,7 +32344,7 @@
       </c>
       <c r="B8" s="10">
         <f>+'Semill búsqueda de la meseta'!B7</f>
-        <v>128.875</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10">
         <f>+'Semill búsqueda de la meseta'!E7</f>
@@ -33139,9 +32362,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>128.875</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="2"/>
@@ -33180,7 +32403,7 @@
       </c>
       <c r="B9" s="10">
         <f>+'Semill búsqueda de la meseta'!B8</f>
-        <v>128.315</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
         <f>+'Semill búsqueda de la meseta'!E8</f>
@@ -33198,9 +32421,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>128.315</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="2"/>
@@ -33238,7 +32461,7 @@
       </c>
       <c r="B10" s="10">
         <f>+'Semill búsqueda de la meseta'!B9</f>
-        <v>124.815</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10">
         <f>+'Semill búsqueda de la meseta'!E9</f>
@@ -33256,9 +32479,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>124.815</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="2"/>
@@ -33296,7 +32519,7 @@
       </c>
       <c r="B11" s="10">
         <f>+'Semill búsqueda de la meseta'!B10</f>
-        <v>121.455</v>
+        <v>0</v>
       </c>
       <c r="C11" s="10">
         <f>+'Semill búsqueda de la meseta'!E10</f>
@@ -33314,9 +32537,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>121.455</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" ref="J11" si="4">+A11</f>
@@ -33354,7 +32577,7 @@
       </c>
       <c r="B12" s="10">
         <f>+'Semill búsqueda de la meseta'!B11</f>
-        <v>120.405</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10">
         <f>+'Semill búsqueda de la meseta'!E11</f>
@@ -33372,9 +32595,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>120.405</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="2"/>
@@ -33412,7 +32635,7 @@
       </c>
       <c r="B13" s="10">
         <f>+'Semill búsqueda de la meseta'!B12</f>
-        <v>122.505</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10">
         <f>+'Semill búsqueda de la meseta'!E12</f>
@@ -33430,9 +32653,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>122.505</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="2"/>
@@ -33470,7 +32693,7 @@
       </c>
       <c r="B14" s="10">
         <f>+'Semill búsqueda de la meseta'!B13</f>
-        <v>119.77500000000001</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10">
         <f>+'Semill búsqueda de la meseta'!E13</f>
@@ -33488,9 +32711,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>119.77500000000001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="2"/>
@@ -33528,7 +32751,7 @@
       </c>
       <c r="B15" s="10">
         <f>+'Semill búsqueda de la meseta'!B14</f>
-        <v>116.34399999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10">
         <f>+'Semill búsqueda de la meseta'!E14</f>
@@ -33546,9 +32769,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>116.34399999999999</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="2"/>
@@ -33583,9 +32806,9 @@
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="40" t="e">
         <f>+AVERAGEIFS(B5:B15,B5:B15,"&lt;&gt;0")</f>
-        <v>122.811125</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C16" s="40" t="e">
         <f t="shared" ref="C16:G16" si="5">+AVERAGEIFS(C5:C15,C5:C15,"&lt;&gt;0")</f>
@@ -34425,13 +33648,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A2:AI67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34439,7181 +33662,375 @@
     <col min="34" max="34" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="22">
-        <v>1060</v>
-      </c>
-      <c r="C2" s="22">
-        <v>3475627</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="22">
-        <v>-100</v>
-      </c>
-      <c r="L2" s="22">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="22">
-        <v>0</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="22">
-        <v>0</v>
-      </c>
-      <c r="P2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>31</v>
-      </c>
-      <c r="R2" s="24">
-        <v>1213</v>
-      </c>
-      <c r="S2" s="22">
-        <v>1</v>
-      </c>
-      <c r="T2" s="22">
-        <v>1</v>
-      </c>
-      <c r="U2" s="22">
-        <v>1</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="22">
-        <v>1</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" s="22">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" s="22">
-        <v>279511</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE2" s="24">
-        <v>342</v>
-      </c>
-      <c r="AF2" s="24">
-        <v>43158</v>
-      </c>
-      <c r="AG2" s="22">
-        <v>12061</v>
-      </c>
-      <c r="AH2" s="23">
-        <v>164347052973513</v>
-      </c>
-      <c r="AI2" s="22">
-        <v>62</v>
-      </c>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="22">
-        <v>1060</v>
-      </c>
-      <c r="C3" s="22">
-        <v>3475627</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="22">
-        <v>-100</v>
-      </c>
-      <c r="L3" s="22">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>31</v>
-      </c>
-      <c r="R3" s="24">
-        <v>561</v>
-      </c>
-      <c r="S3" s="22">
-        <v>1</v>
-      </c>
-      <c r="T3" s="22">
-        <v>1</v>
-      </c>
-      <c r="U3" s="22">
-        <v>1</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" s="22">
-        <v>1</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="22">
-        <v>279511</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD3" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE3" s="24">
-        <v>295</v>
-      </c>
-      <c r="AF3" s="24">
-        <v>42234</v>
-      </c>
-      <c r="AG3" s="22">
-        <v>11603</v>
-      </c>
-      <c r="AH3" s="23">
-        <v>163984557221389</v>
-      </c>
-      <c r="AI3" s="22">
-        <v>57</v>
-      </c>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="22"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1060</v>
-      </c>
-      <c r="C4" s="22">
-        <v>3475627</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="22">
-        <v>-100</v>
-      </c>
-      <c r="L4" s="22">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>31</v>
-      </c>
-      <c r="R4" s="24">
-        <v>2147</v>
-      </c>
-      <c r="S4" s="22">
-        <v>1</v>
-      </c>
-      <c r="T4" s="22">
-        <v>1</v>
-      </c>
-      <c r="U4" s="22">
-        <v>1</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="22">
-        <v>1</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="22">
-        <v>279511</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE4" s="24">
-        <v>331</v>
-      </c>
-      <c r="AF4" s="24">
-        <v>22431</v>
-      </c>
-      <c r="AG4" s="22">
-        <v>11483</v>
-      </c>
-      <c r="AH4" s="23">
-        <v>163900739130435</v>
-      </c>
-      <c r="AI4" s="22">
-        <v>31</v>
-      </c>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="22"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1060</v>
-      </c>
-      <c r="C5" s="22">
-        <v>3475627</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="22">
-        <v>-100</v>
-      </c>
-      <c r="L5" s="22">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>31</v>
-      </c>
-      <c r="R5" s="24">
-        <v>799</v>
-      </c>
-      <c r="S5" s="22">
-        <v>1</v>
-      </c>
-      <c r="T5" s="22">
-        <v>1</v>
-      </c>
-      <c r="U5" s="22">
-        <v>1</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="W5" s="22">
-        <v>1</v>
-      </c>
-      <c r="X5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" s="22">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" s="22">
-        <v>279511</v>
-      </c>
-      <c r="AC5" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD5" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE5" s="24">
-        <v>247</v>
-      </c>
-      <c r="AF5" s="24">
-        <v>49996</v>
-      </c>
-      <c r="AG5" s="22">
-        <v>13296</v>
-      </c>
-      <c r="AH5" s="23">
-        <v>162908729635182</v>
-      </c>
-      <c r="AI5" s="22">
-        <v>61</v>
-      </c>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="22"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1060</v>
-      </c>
-      <c r="C6" s="22">
-        <v>3475627</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="22">
-        <v>-100</v>
-      </c>
-      <c r="L6" s="22">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>31</v>
-      </c>
-      <c r="R6" s="24">
-        <v>2985</v>
-      </c>
-      <c r="S6" s="22">
-        <v>1</v>
-      </c>
-      <c r="T6" s="22">
-        <v>1</v>
-      </c>
-      <c r="U6" s="22">
-        <v>1</v>
-      </c>
-      <c r="V6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="W6" s="22">
-        <v>1</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="22">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA6" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB6" s="22">
-        <v>279511</v>
-      </c>
-      <c r="AC6" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD6" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE6" s="24">
-        <v>356</v>
-      </c>
-      <c r="AF6" s="24">
-        <v>49985</v>
-      </c>
-      <c r="AG6" s="22">
-        <v>12615</v>
-      </c>
-      <c r="AH6" s="23">
-        <v>162833170914543</v>
-      </c>
-      <c r="AI6" s="22">
-        <v>25</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="22"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7">
-        <v>1060</v>
-      </c>
-      <c r="C7">
-        <v>3475627</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7">
-        <v>-100</v>
-      </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>31</v>
-      </c>
-      <c r="R7">
-        <v>2011</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7" t="s">
-        <v>82</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7">
-        <v>50</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB7">
-        <v>279511</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE7">
-        <v>336</v>
-      </c>
-      <c r="AF7">
-        <v>26149</v>
-      </c>
-      <c r="AG7">
-        <v>11635</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>162801896551724</v>
-      </c>
-      <c r="AI7">
-        <v>37</v>
-      </c>
+      <c r="AH7" s="4"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8">
-        <v>1060</v>
-      </c>
-      <c r="C8">
-        <v>3475627</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8">
-        <v>-100</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>31</v>
-      </c>
-      <c r="R8">
-        <v>2476</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>82</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8">
-        <v>50</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB8">
-        <v>279511</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE8">
-        <v>521</v>
-      </c>
-      <c r="AF8">
-        <v>49997</v>
-      </c>
-      <c r="AG8">
-        <v>11297</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>162726677161419</v>
-      </c>
-      <c r="AI8">
-        <v>29</v>
-      </c>
+      <c r="AH8" s="4"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9">
-        <v>1060</v>
-      </c>
-      <c r="C9">
-        <v>3475627</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9">
-        <v>-100</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>31</v>
-      </c>
-      <c r="R9">
-        <v>2900</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9">
-        <v>50</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB9">
-        <v>279511</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE9">
-        <v>521</v>
-      </c>
-      <c r="AF9">
-        <v>45504</v>
-      </c>
-      <c r="AG9">
-        <v>11699</v>
-      </c>
-      <c r="AH9" s="4">
-        <v>162428339330335</v>
-      </c>
-      <c r="AI9">
-        <v>23</v>
-      </c>
+      <c r="AH9" s="4"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10">
-        <v>1060</v>
-      </c>
-      <c r="C10">
-        <v>3475627</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10">
-        <v>-100</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>31</v>
-      </c>
-      <c r="R10">
-        <v>1127</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10">
-        <v>50</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB10">
-        <v>279511</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE10">
-        <v>417</v>
-      </c>
-      <c r="AF10">
-        <v>47077</v>
-      </c>
-      <c r="AG10">
-        <v>11833</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>162109389805097</v>
-      </c>
-      <c r="AI10">
-        <v>44</v>
-      </c>
+      <c r="AH10" s="4"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11">
-        <v>1060</v>
-      </c>
-      <c r="C11">
-        <v>3475627</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11">
-        <v>-100</v>
-      </c>
-      <c r="L11">
-        <v>-1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>31</v>
-      </c>
-      <c r="R11">
-        <v>669</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" t="s">
-        <v>82</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y11">
-        <v>50</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB11">
-        <v>279511</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE11">
-        <v>44</v>
-      </c>
-      <c r="AF11">
-        <v>40013</v>
-      </c>
-      <c r="AG11">
-        <v>12123</v>
-      </c>
-      <c r="AH11" s="4">
-        <v>162052963018491</v>
-      </c>
-      <c r="AI11">
-        <v>56</v>
-      </c>
+      <c r="AH11" s="4"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12">
-        <v>1060</v>
-      </c>
-      <c r="C12">
-        <v>3475627</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12">
-        <v>-100</v>
-      </c>
-      <c r="L12">
-        <v>-1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>31</v>
-      </c>
-      <c r="R12">
-        <v>366</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
-        <v>82</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y12">
-        <v>50</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB12">
-        <v>279511</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE12">
-        <v>371</v>
-      </c>
-      <c r="AF12">
-        <v>38535</v>
-      </c>
-      <c r="AG12">
-        <v>12994</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>162029066466767</v>
-      </c>
-      <c r="AI12">
-        <v>2</v>
-      </c>
+      <c r="AH12" s="4"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13">
-        <v>1060</v>
-      </c>
-      <c r="C13">
-        <v>3475627</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13">
-        <v>-100</v>
-      </c>
-      <c r="L13">
-        <v>-1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>31</v>
-      </c>
-      <c r="R13">
-        <v>3247</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
-        <v>82</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y13">
-        <v>50</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB13">
-        <v>279511</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE13">
-        <v>282</v>
-      </c>
-      <c r="AF13">
-        <v>43687</v>
-      </c>
-      <c r="AG13">
-        <v>11807</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>161964233383308</v>
-      </c>
-      <c r="AI13">
-        <v>27</v>
-      </c>
+      <c r="AH13" s="4"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14">
-        <v>1060</v>
-      </c>
-      <c r="C14">
-        <v>3475627</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14">
-        <v>-100</v>
-      </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>31</v>
-      </c>
-      <c r="R14">
-        <v>2246</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14" t="s">
-        <v>82</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y14">
-        <v>50</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14">
-        <v>279511</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE14">
-        <v>310</v>
-      </c>
-      <c r="AF14">
-        <v>44286</v>
-      </c>
-      <c r="AG14">
-        <v>11390</v>
-      </c>
-      <c r="AH14" s="4">
-        <v>161951559220390</v>
-      </c>
-      <c r="AI14">
-        <v>63</v>
-      </c>
+      <c r="AH14" s="4"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15">
-        <v>1060</v>
-      </c>
-      <c r="C15">
-        <v>3475627</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15">
-        <v>-100</v>
-      </c>
-      <c r="L15">
-        <v>-1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>31</v>
-      </c>
-      <c r="R15">
-        <v>2035</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
-        <v>82</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15">
-        <v>50</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB15">
-        <v>279511</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE15">
-        <v>207</v>
-      </c>
-      <c r="AF15">
-        <v>48251</v>
-      </c>
-      <c r="AG15">
-        <v>11367</v>
-      </c>
-      <c r="AH15" s="4">
-        <v>161836477261369</v>
-      </c>
-      <c r="AI15">
-        <v>35</v>
-      </c>
+      <c r="AH15" s="4"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16">
-        <v>1060</v>
-      </c>
-      <c r="C16">
-        <v>3475627</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16">
-        <v>-100</v>
-      </c>
-      <c r="L16">
-        <v>-1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>31</v>
-      </c>
-      <c r="R16">
-        <v>1271</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
-        <v>82</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y16">
-        <v>50</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB16">
-        <v>279511</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE16">
-        <v>369</v>
-      </c>
-      <c r="AF16">
-        <v>23198</v>
-      </c>
-      <c r="AG16">
-        <v>11634</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>161753824087956</v>
-      </c>
-      <c r="AI16">
-        <v>50</v>
-      </c>
+      <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17">
-        <v>1060</v>
-      </c>
-      <c r="C17">
-        <v>3475627</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17">
-        <v>-100</v>
-      </c>
-      <c r="L17">
-        <v>-1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>31</v>
-      </c>
-      <c r="R17">
-        <v>1142</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
-        <v>82</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y17">
-        <v>50</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB17">
-        <v>279511</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE17">
-        <v>323</v>
-      </c>
-      <c r="AF17">
-        <v>40135</v>
-      </c>
-      <c r="AG17">
-        <v>11928</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>161709277361319</v>
-      </c>
-      <c r="AI17">
-        <v>60</v>
-      </c>
+    <row r="17" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH17" s="4"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18">
-        <v>1060</v>
-      </c>
-      <c r="C18">
-        <v>3475627</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18">
-        <v>-100</v>
-      </c>
-      <c r="L18">
-        <v>-1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>31</v>
-      </c>
-      <c r="R18">
-        <v>2746</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18" t="s">
-        <v>82</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y18">
-        <v>50</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB18">
-        <v>279511</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE18">
-        <v>624</v>
-      </c>
-      <c r="AF18">
-        <v>43721</v>
-      </c>
-      <c r="AG18">
-        <v>11668</v>
-      </c>
-      <c r="AH18" s="4">
-        <v>161666808595702</v>
-      </c>
-      <c r="AI18">
-        <v>49</v>
-      </c>
+    <row r="18" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH18" s="4"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19">
-        <v>1060</v>
-      </c>
-      <c r="C19">
-        <v>3475627</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19">
-        <v>-100</v>
-      </c>
-      <c r="L19">
-        <v>-1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>31</v>
-      </c>
-      <c r="R19">
-        <v>1768</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
-        <v>82</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y19">
-        <v>50</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB19">
-        <v>279511</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE19">
-        <v>482</v>
-      </c>
-      <c r="AF19">
-        <v>40794</v>
-      </c>
-      <c r="AG19">
-        <v>11985</v>
-      </c>
-      <c r="AH19" s="4">
-        <v>161507578710645</v>
-      </c>
-      <c r="AI19">
-        <v>39</v>
-      </c>
+    <row r="19" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH19" s="4"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20">
-        <v>1060</v>
-      </c>
-      <c r="C20">
-        <v>3475627</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20">
-        <v>-100</v>
-      </c>
-      <c r="L20">
-        <v>-1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>31</v>
-      </c>
-      <c r="R20">
-        <v>246</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20">
-        <v>50</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB20">
-        <v>279511</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE20">
-        <v>162</v>
-      </c>
-      <c r="AF20">
-        <v>29185</v>
-      </c>
-      <c r="AG20">
-        <v>12340</v>
-      </c>
-      <c r="AH20" s="4">
-        <v>161481149425287</v>
-      </c>
-      <c r="AI20">
-        <v>20</v>
-      </c>
+    <row r="20" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH20" s="4"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21">
-        <v>1060</v>
-      </c>
-      <c r="C21">
-        <v>3475627</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21">
-        <v>-100</v>
-      </c>
-      <c r="L21">
-        <v>-1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>31</v>
-      </c>
-      <c r="R21">
-        <v>2084</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
-        <v>82</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y21">
-        <v>50</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB21">
-        <v>279511</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE21">
-        <v>625</v>
-      </c>
-      <c r="AF21">
-        <v>49974</v>
-      </c>
-      <c r="AG21">
-        <v>11525</v>
-      </c>
-      <c r="AH21" s="4">
-        <v>161434885057471</v>
-      </c>
-      <c r="AI21">
-        <v>28</v>
-      </c>
+    <row r="21" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH21" s="4"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22">
-        <v>1060</v>
-      </c>
-      <c r="C22">
-        <v>3475627</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22">
-        <v>-100</v>
-      </c>
-      <c r="L22">
-        <v>-1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>31</v>
-      </c>
-      <c r="R22">
-        <v>1968</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
-        <v>82</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y22">
-        <v>50</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB22">
-        <v>279511</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE22">
-        <v>647</v>
-      </c>
-      <c r="AF22">
-        <v>23259</v>
-      </c>
-      <c r="AG22">
-        <v>12264</v>
-      </c>
-      <c r="AH22" s="4">
-        <v>161424603698151</v>
-      </c>
-      <c r="AI22">
-        <v>34</v>
-      </c>
+    <row r="22" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH22" s="4"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23">
-        <v>1060</v>
-      </c>
-      <c r="C23">
-        <v>3475627</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23">
-        <v>-100</v>
-      </c>
-      <c r="L23">
-        <v>-1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>31</v>
-      </c>
-      <c r="R23">
-        <v>3115</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>82</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y23">
-        <v>50</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB23">
-        <v>279511</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE23">
-        <v>1024</v>
-      </c>
-      <c r="AF23">
-        <v>41309</v>
-      </c>
-      <c r="AG23">
-        <v>12327</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>161383523738131</v>
-      </c>
-      <c r="AI23">
-        <v>24</v>
-      </c>
+    <row r="23" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH23" s="4"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B24">
-        <v>1060</v>
-      </c>
-      <c r="C24">
-        <v>3475627</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24">
-        <v>-100</v>
-      </c>
-      <c r="L24">
-        <v>-1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>83</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>31</v>
-      </c>
-      <c r="R24">
-        <v>2353</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
-        <v>82</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y24">
-        <v>50</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB24">
-        <v>279511</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE24">
-        <v>476</v>
-      </c>
-      <c r="AF24">
-        <v>45984</v>
-      </c>
-      <c r="AG24">
-        <v>11148</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>161276123938031</v>
-      </c>
-      <c r="AI24">
-        <v>65</v>
-      </c>
+    <row r="24" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH24" s="4"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25">
-        <v>1060</v>
-      </c>
-      <c r="C25">
-        <v>3475627</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25">
-        <v>-100</v>
-      </c>
-      <c r="L25">
-        <v>-1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>31</v>
-      </c>
-      <c r="R25">
-        <v>1403</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
-        <v>82</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y25">
-        <v>50</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB25">
-        <v>279511</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE25">
-        <v>997</v>
-      </c>
-      <c r="AF25">
-        <v>16921</v>
-      </c>
-      <c r="AG25">
-        <v>11990</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>161186421789105</v>
-      </c>
-      <c r="AI25">
-        <v>22</v>
-      </c>
+    <row r="25" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH25" s="4"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26">
-        <v>1060</v>
-      </c>
-      <c r="C26">
-        <v>3475627</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26">
-        <v>-100</v>
-      </c>
-      <c r="L26">
-        <v>-1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>31</v>
-      </c>
-      <c r="R26">
-        <v>2531</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
-        <v>82</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26">
-        <v>50</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB26">
-        <v>279511</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE26">
-        <v>714</v>
-      </c>
-      <c r="AF26">
-        <v>49995</v>
-      </c>
-      <c r="AG26">
-        <v>12529</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>161081267866067</v>
-      </c>
-      <c r="AI26">
-        <v>30</v>
-      </c>
+    <row r="26" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH26" s="4"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27">
-        <v>1060</v>
-      </c>
-      <c r="C27">
-        <v>3475627</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27">
-        <v>-100</v>
-      </c>
-      <c r="L27">
-        <v>-1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>83</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>31</v>
-      </c>
-      <c r="R27">
-        <v>658</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
-        <v>82</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y27">
-        <v>50</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB27">
-        <v>279511</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE27">
-        <v>236</v>
-      </c>
-      <c r="AF27">
-        <v>49993</v>
-      </c>
-      <c r="AG27">
-        <v>11303</v>
-      </c>
-      <c r="AH27" s="4">
-        <v>161067785607196</v>
-      </c>
-      <c r="AI27">
-        <v>21</v>
-      </c>
+    <row r="27" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH27" s="4"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>270</v>
-      </c>
-      <c r="B28">
-        <v>1060</v>
-      </c>
-      <c r="C28">
-        <v>3475627</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28">
-        <v>-100</v>
-      </c>
-      <c r="L28">
-        <v>-1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>31</v>
-      </c>
-      <c r="R28">
-        <v>1013</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
-        <v>82</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y28">
-        <v>50</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB28">
-        <v>279511</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE28">
-        <v>599</v>
-      </c>
-      <c r="AF28">
-        <v>42519</v>
-      </c>
-      <c r="AG28">
-        <v>12051</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>160992825087456</v>
-      </c>
-      <c r="AI28">
-        <v>58</v>
-      </c>
+    <row r="28" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH28" s="4"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29">
-        <v>1060</v>
-      </c>
-      <c r="C29">
-        <v>3475627</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29">
-        <v>-100</v>
-      </c>
-      <c r="L29">
-        <v>-1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>83</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>31</v>
-      </c>
-      <c r="R29">
-        <v>1719</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29" t="s">
-        <v>82</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y29">
-        <v>50</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB29">
-        <v>279511</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE29">
-        <v>181</v>
-      </c>
-      <c r="AF29">
-        <v>22387</v>
-      </c>
-      <c r="AG29">
-        <v>12832</v>
-      </c>
-      <c r="AH29" s="4">
-        <v>160894940529735</v>
-      </c>
-      <c r="AI29">
-        <v>51</v>
-      </c>
+    <row r="29" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH29" s="4"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30">
-        <v>1060</v>
-      </c>
-      <c r="C30">
-        <v>3475627</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30">
-        <v>-100</v>
-      </c>
-      <c r="L30">
-        <v>-1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>31</v>
-      </c>
-      <c r="R30">
-        <v>439</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
-        <v>82</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y30">
-        <v>50</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB30">
-        <v>279511</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE30">
-        <v>432</v>
-      </c>
-      <c r="AF30">
-        <v>31085</v>
-      </c>
-      <c r="AG30">
-        <v>12265</v>
-      </c>
-      <c r="AH30" s="4">
-        <v>160856064467766</v>
-      </c>
-      <c r="AI30">
-        <v>18</v>
-      </c>
+    <row r="30" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH30" s="4"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31">
-        <v>1060</v>
-      </c>
-      <c r="C31">
-        <v>3475627</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31">
-        <v>-100</v>
-      </c>
-      <c r="L31">
-        <v>-1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>83</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>31</v>
-      </c>
-      <c r="R31">
-        <v>817</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31" t="s">
-        <v>82</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y31">
-        <v>50</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB31">
-        <v>279511</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE31">
-        <v>428</v>
-      </c>
-      <c r="AF31">
-        <v>22128</v>
-      </c>
-      <c r="AG31">
-        <v>12822</v>
-      </c>
-      <c r="AH31" s="4">
-        <v>160624770614693</v>
-      </c>
-      <c r="AI31">
-        <v>43</v>
-      </c>
+    <row r="31" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH31" s="4"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32">
-        <v>1060</v>
-      </c>
-      <c r="C32">
-        <v>3475627</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32">
-        <v>-100</v>
-      </c>
-      <c r="L32">
-        <v>-1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>83</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>31</v>
-      </c>
-      <c r="R32">
-        <v>3611</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32" t="s">
-        <v>82</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y32">
-        <v>50</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB32">
-        <v>279511</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE32">
-        <v>70</v>
-      </c>
-      <c r="AF32">
-        <v>22624</v>
-      </c>
-      <c r="AG32">
-        <v>12899</v>
-      </c>
-      <c r="AH32" s="4">
-        <v>160622682158921</v>
-      </c>
-      <c r="AI32">
-        <v>52</v>
-      </c>
+    <row r="32" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH32" s="4"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>294</v>
-      </c>
-      <c r="B33">
-        <v>1060</v>
-      </c>
-      <c r="C33">
-        <v>3475627</v>
-      </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" t="s">
-        <v>81</v>
-      </c>
-      <c r="K33">
-        <v>-100</v>
-      </c>
-      <c r="L33">
-        <v>-1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>31</v>
-      </c>
-      <c r="R33">
-        <v>1560</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33" t="s">
-        <v>82</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y33">
-        <v>50</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB33">
-        <v>279511</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE33">
-        <v>372</v>
-      </c>
-      <c r="AF33">
-        <v>42924</v>
-      </c>
-      <c r="AG33">
-        <v>10859</v>
-      </c>
-      <c r="AH33" s="4">
-        <v>160602812093953</v>
-      </c>
-      <c r="AI33">
-        <v>66</v>
-      </c>
+    <row r="33" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH33" s="4"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34">
-        <v>1060</v>
-      </c>
-      <c r="C34">
-        <v>3475627</v>
-      </c>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34">
-        <v>-100</v>
-      </c>
-      <c r="L34">
-        <v>-1</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>83</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>31</v>
-      </c>
-      <c r="R34">
-        <v>2140</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34" t="s">
-        <v>82</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y34">
-        <v>50</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB34">
-        <v>279511</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE34">
-        <v>56</v>
-      </c>
-      <c r="AF34">
-        <v>34450</v>
-      </c>
-      <c r="AG34">
-        <v>11666</v>
-      </c>
-      <c r="AH34" s="4">
-        <v>160361828085957</v>
-      </c>
-      <c r="AI34">
-        <v>14</v>
-      </c>
+    <row r="34" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH34" s="4"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35">
-        <v>1060</v>
-      </c>
-      <c r="C35">
-        <v>3475627</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35">
-        <v>-100</v>
-      </c>
-      <c r="L35">
-        <v>-1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>83</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>31</v>
-      </c>
-      <c r="R35">
-        <v>253</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35" t="s">
-        <v>82</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y35">
-        <v>50</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB35">
-        <v>279511</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE35">
-        <v>1024</v>
-      </c>
-      <c r="AF35">
-        <v>36037</v>
-      </c>
-      <c r="AG35">
-        <v>11523</v>
-      </c>
-      <c r="AH35" s="4">
-        <v>160233452773613</v>
-      </c>
-      <c r="AI35">
-        <v>47</v>
-      </c>
+    <row r="35" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH35" s="4"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36">
-        <v>1060</v>
-      </c>
-      <c r="C36">
-        <v>3475627</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36">
-        <v>-100</v>
-      </c>
-      <c r="L36">
-        <v>-1</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>83</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>31</v>
-      </c>
-      <c r="R36">
-        <v>698</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36" t="s">
-        <v>82</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y36">
-        <v>50</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB36">
-        <v>279511</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE36">
-        <v>412</v>
-      </c>
-      <c r="AF36">
-        <v>23029</v>
-      </c>
-      <c r="AG36">
-        <v>12776</v>
-      </c>
-      <c r="AH36" s="4">
-        <v>160149589205397</v>
-      </c>
-      <c r="AI36">
-        <v>6</v>
-      </c>
+    <row r="36" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH36" s="4"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37">
-        <v>1060</v>
-      </c>
-      <c r="C37">
-        <v>3475627</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37">
-        <v>-100</v>
-      </c>
-      <c r="L37">
-        <v>-1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>83</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>31</v>
-      </c>
-      <c r="R37">
-        <v>885</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37" t="s">
-        <v>82</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y37">
-        <v>50</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB37">
-        <v>279511</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE37">
-        <v>510</v>
-      </c>
-      <c r="AF37">
-        <v>43266</v>
-      </c>
-      <c r="AG37">
-        <v>11450</v>
-      </c>
-      <c r="AH37" s="4">
-        <v>160073348325837</v>
-      </c>
-      <c r="AI37">
-        <v>46</v>
-      </c>
+    <row r="37" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH37" s="4"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38">
-        <v>1060</v>
-      </c>
-      <c r="C38">
-        <v>3475627</v>
-      </c>
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38">
-        <v>-100</v>
-      </c>
-      <c r="L38">
-        <v>-1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>83</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>31</v>
-      </c>
-      <c r="R38">
-        <v>1008</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38" t="s">
-        <v>82</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y38">
-        <v>50</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB38">
-        <v>279511</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE38">
-        <v>150</v>
-      </c>
-      <c r="AF38">
-        <v>42638</v>
-      </c>
-      <c r="AG38">
-        <v>13778</v>
-      </c>
-      <c r="AH38" s="4">
-        <v>160000696651674</v>
-      </c>
-      <c r="AI38">
-        <v>8</v>
-      </c>
+    <row r="38" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH38" s="4"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39">
-        <v>1060</v>
-      </c>
-      <c r="C39">
-        <v>3475627</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J39" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>-100</v>
-      </c>
-      <c r="L39">
-        <v>-1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>83</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>31</v>
-      </c>
-      <c r="R39">
-        <v>439</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39" t="s">
-        <v>82</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y39">
-        <v>50</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB39">
-        <v>279511</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE39">
-        <v>587</v>
-      </c>
-      <c r="AF39">
-        <v>37025</v>
-      </c>
-      <c r="AG39">
-        <v>11952</v>
-      </c>
-      <c r="AH39" s="4">
-        <v>159941177411294</v>
-      </c>
-      <c r="AI39">
-        <v>19</v>
-      </c>
+    <row r="39" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH39" s="4"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40">
-        <v>1060</v>
-      </c>
-      <c r="C40">
-        <v>3475627</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40">
-        <v>-100</v>
-      </c>
-      <c r="L40">
-        <v>-1</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>83</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>31</v>
-      </c>
-      <c r="R40">
-        <v>1085</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40" t="s">
-        <v>82</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y40">
-        <v>50</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB40">
-        <v>279511</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE40">
-        <v>995</v>
-      </c>
-      <c r="AF40">
-        <v>27067</v>
-      </c>
-      <c r="AG40">
-        <v>11761</v>
-      </c>
-      <c r="AH40" s="4">
-        <v>159825843578211</v>
-      </c>
-      <c r="AI40">
-        <v>15</v>
-      </c>
+    <row r="40" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH40" s="4"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41">
-        <v>1060</v>
-      </c>
-      <c r="C41">
-        <v>3475627</v>
-      </c>
-      <c r="D41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>-100</v>
-      </c>
-      <c r="L41">
-        <v>-1</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>83</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>31</v>
-      </c>
-      <c r="R41">
-        <v>1918</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41" t="s">
-        <v>82</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y41">
-        <v>50</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB41">
-        <v>279511</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE41">
-        <v>438</v>
-      </c>
-      <c r="AF41">
-        <v>27603</v>
-      </c>
-      <c r="AG41">
-        <v>11643</v>
-      </c>
-      <c r="AH41" s="4">
-        <v>159773222888556</v>
-      </c>
-      <c r="AI41">
-        <v>40</v>
-      </c>
+    <row r="41" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH41" s="4"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42">
-        <v>1060</v>
-      </c>
-      <c r="C42">
-        <v>3475627</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42">
-        <v>-100</v>
-      </c>
-      <c r="L42">
-        <v>-1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>83</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>31</v>
-      </c>
-      <c r="R42">
-        <v>937</v>
-      </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42" t="s">
-        <v>82</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y42">
-        <v>50</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB42">
-        <v>279511</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE42">
-        <v>142</v>
-      </c>
-      <c r="AF42">
-        <v>41865</v>
-      </c>
-      <c r="AG42">
-        <v>13099</v>
-      </c>
-      <c r="AH42" s="4">
-        <v>159752177411294</v>
-      </c>
-      <c r="AI42">
-        <v>59</v>
-      </c>
+    <row r="42" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH42" s="4"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43">
-        <v>1060</v>
-      </c>
-      <c r="C43">
-        <v>3475627</v>
-      </c>
-      <c r="D43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" t="s">
-        <v>82</v>
-      </c>
-      <c r="J43" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43">
-        <v>-100</v>
-      </c>
-      <c r="L43">
-        <v>-1</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
-        <v>83</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>31</v>
-      </c>
-      <c r="R43">
-        <v>934</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43" t="s">
-        <v>82</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y43">
-        <v>50</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB43">
-        <v>279511</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE43">
-        <v>831</v>
-      </c>
-      <c r="AF43">
-        <v>46409</v>
-      </c>
-      <c r="AG43">
-        <v>13542</v>
-      </c>
-      <c r="AH43" s="4">
-        <v>159536114942529</v>
-      </c>
-      <c r="AI43">
-        <v>10</v>
-      </c>
+    <row r="43" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH43" s="4"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44">
-        <v>1060</v>
-      </c>
-      <c r="C44">
-        <v>3475627</v>
-      </c>
-      <c r="D44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>-100</v>
-      </c>
-      <c r="L44">
-        <v>-1</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>83</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>31</v>
-      </c>
-      <c r="R44">
-        <v>346</v>
-      </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44" t="s">
-        <v>82</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y44">
-        <v>50</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB44">
-        <v>279511</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE44">
-        <v>243</v>
-      </c>
-      <c r="AF44">
-        <v>26250</v>
-      </c>
-      <c r="AG44">
-        <v>11703</v>
-      </c>
-      <c r="AH44" s="4">
-        <v>159455371814093</v>
-      </c>
-      <c r="AI44">
-        <v>55</v>
-      </c>
+    <row r="44" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH44" s="4"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45">
-        <v>1060</v>
-      </c>
-      <c r="C45">
-        <v>3475627</v>
-      </c>
-      <c r="D45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" t="s">
-        <v>81</v>
-      </c>
-      <c r="H45" t="s">
-        <v>81</v>
-      </c>
-      <c r="I45" t="s">
-        <v>82</v>
-      </c>
-      <c r="J45" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45">
-        <v>-100</v>
-      </c>
-      <c r="L45">
-        <v>-1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>83</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>31</v>
-      </c>
-      <c r="R45">
-        <v>2488</v>
-      </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45" t="s">
-        <v>82</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y45">
-        <v>50</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB45">
-        <v>279511</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE45">
-        <v>287</v>
-      </c>
-      <c r="AF45">
-        <v>23985</v>
-      </c>
-      <c r="AG45">
-        <v>12448</v>
-      </c>
-      <c r="AH45" s="4">
-        <v>159418762618691</v>
-      </c>
-      <c r="AI45">
-        <v>33</v>
-      </c>
+    <row r="45" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH45" s="4"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46">
-        <v>1060</v>
-      </c>
-      <c r="C46">
-        <v>3475627</v>
-      </c>
-      <c r="D46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s">
-        <v>81</v>
-      </c>
-      <c r="I46" t="s">
-        <v>82</v>
-      </c>
-      <c r="J46" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46">
-        <v>-100</v>
-      </c>
-      <c r="L46">
-        <v>-1</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
-        <v>83</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>31</v>
-      </c>
-      <c r="R46">
-        <v>2420</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46" t="s">
-        <v>82</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y46">
-        <v>50</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB46">
-        <v>279511</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE46">
-        <v>8</v>
-      </c>
-      <c r="AF46">
-        <v>42442</v>
-      </c>
-      <c r="AG46">
-        <v>12535</v>
-      </c>
-      <c r="AH46" s="4">
-        <v>159023715642179</v>
-      </c>
-      <c r="AI46">
-        <v>17</v>
-      </c>
+    <row r="46" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH46" s="4"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47">
-        <v>1060</v>
-      </c>
-      <c r="C47">
-        <v>3475627</v>
-      </c>
-      <c r="D47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" t="s">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47">
-        <v>-100</v>
-      </c>
-      <c r="L47">
-        <v>-1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
-        <v>83</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>31</v>
-      </c>
-      <c r="R47">
-        <v>194</v>
-      </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47" t="s">
-        <v>82</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y47">
-        <v>50</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB47">
-        <v>279511</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE47">
-        <v>759</v>
-      </c>
-      <c r="AF47">
-        <v>20645</v>
-      </c>
-      <c r="AG47">
-        <v>11639</v>
-      </c>
-      <c r="AH47" s="4">
-        <v>159018454272864</v>
-      </c>
-      <c r="AI47">
-        <v>1</v>
-      </c>
+    <row r="47" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH47" s="4"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48">
-        <v>1060</v>
-      </c>
-      <c r="C48">
-        <v>3475627</v>
-      </c>
-      <c r="D48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s">
-        <v>81</v>
-      </c>
-      <c r="H48" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J48" t="s">
-        <v>81</v>
-      </c>
-      <c r="K48">
-        <v>-100</v>
-      </c>
-      <c r="L48">
-        <v>-1</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
-        <v>83</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>31</v>
-      </c>
-      <c r="R48">
-        <v>1326</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48" t="s">
-        <v>82</v>
-      </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y48">
-        <v>50</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB48">
-        <v>279511</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE48">
-        <v>177</v>
-      </c>
-      <c r="AF48">
-        <v>36694</v>
-      </c>
-      <c r="AG48">
-        <v>12254</v>
-      </c>
-      <c r="AH48" s="4">
-        <v>159008326836582</v>
-      </c>
-      <c r="AI48">
-        <v>38</v>
-      </c>
+    <row r="48" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH48" s="4"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49">
-        <v>1060</v>
-      </c>
-      <c r="C49">
-        <v>3475627</v>
-      </c>
-      <c r="D49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J49" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49">
-        <v>-100</v>
-      </c>
-      <c r="L49">
-        <v>-1</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>83</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>31</v>
-      </c>
-      <c r="R49">
-        <v>339</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-      <c r="T49">
-        <v>1</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49" t="s">
-        <v>82</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y49">
-        <v>50</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB49">
-        <v>279511</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE49">
-        <v>247</v>
-      </c>
-      <c r="AF49">
-        <v>32802</v>
-      </c>
-      <c r="AG49">
-        <v>13807</v>
-      </c>
-      <c r="AH49" s="4">
-        <v>158848411294353</v>
-      </c>
-      <c r="AI49">
-        <v>45</v>
-      </c>
+    <row r="49" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH49" s="4"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50">
-        <v>1060</v>
-      </c>
-      <c r="C50">
-        <v>3475627</v>
-      </c>
-      <c r="D50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" t="s">
-        <v>81</v>
-      </c>
-      <c r="I50" t="s">
-        <v>82</v>
-      </c>
-      <c r="J50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50">
-        <v>-100</v>
-      </c>
-      <c r="L50">
-        <v>-1</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>83</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>31</v>
-      </c>
-      <c r="R50">
-        <v>278</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50" t="s">
-        <v>82</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y50">
-        <v>50</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB50">
-        <v>279511</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE50">
-        <v>195</v>
-      </c>
-      <c r="AF50">
-        <v>38968</v>
-      </c>
-      <c r="AG50">
-        <v>11196</v>
-      </c>
-      <c r="AH50" s="4">
-        <v>158506740629685</v>
-      </c>
-      <c r="AI50">
-        <v>64</v>
-      </c>
+    <row r="50" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH50" s="4"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51">
-        <v>1060</v>
-      </c>
-      <c r="C51">
-        <v>3475627</v>
-      </c>
-      <c r="D51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" t="s">
-        <v>82</v>
-      </c>
-      <c r="J51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51">
-        <v>-100</v>
-      </c>
-      <c r="L51">
-        <v>-1</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>83</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>31</v>
-      </c>
-      <c r="R51">
-        <v>448</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51" t="s">
-        <v>82</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y51">
-        <v>50</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB51">
-        <v>279511</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE51">
-        <v>344</v>
-      </c>
-      <c r="AF51">
-        <v>22804</v>
-      </c>
-      <c r="AG51">
-        <v>12135</v>
-      </c>
-      <c r="AH51" s="4">
-        <v>158158528235882</v>
-      </c>
-      <c r="AI51">
-        <v>42</v>
-      </c>
+    <row r="51" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH51" s="4"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52">
-        <v>1060</v>
-      </c>
-      <c r="C52">
-        <v>3475627</v>
-      </c>
-      <c r="D52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" t="s">
-        <v>81</v>
-      </c>
-      <c r="K52">
-        <v>-100</v>
-      </c>
-      <c r="L52">
-        <v>-1</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
-        <v>83</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>31</v>
-      </c>
-      <c r="R52">
-        <v>259</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52" t="s">
-        <v>82</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y52">
-        <v>50</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB52">
-        <v>279511</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE52">
-        <v>268</v>
-      </c>
-      <c r="AF52">
-        <v>29593</v>
-      </c>
-      <c r="AG52">
-        <v>11459</v>
-      </c>
-      <c r="AH52" s="4">
-        <v>157904121439280</v>
-      </c>
-      <c r="AI52">
-        <v>11</v>
-      </c>
+    <row r="52" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH52" s="4"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53">
-        <v>1060</v>
-      </c>
-      <c r="C53">
-        <v>3475627</v>
-      </c>
-      <c r="D53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s">
-        <v>81</v>
-      </c>
-      <c r="H53" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-      <c r="J53" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53">
-        <v>-100</v>
-      </c>
-      <c r="L53">
-        <v>-1</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
-        <v>83</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>31</v>
-      </c>
-      <c r="R53">
-        <v>314</v>
-      </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53" t="s">
-        <v>82</v>
-      </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y53">
-        <v>50</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB53">
-        <v>279511</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE53">
-        <v>326</v>
-      </c>
-      <c r="AF53">
-        <v>30635</v>
-      </c>
-      <c r="AG53">
-        <v>12615</v>
-      </c>
-      <c r="AH53" s="4">
-        <v>157896999000500</v>
-      </c>
-      <c r="AI53">
-        <v>48</v>
-      </c>
+    <row r="53" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH53" s="4"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54">
-        <v>1060</v>
-      </c>
-      <c r="C54">
-        <v>3475627</v>
-      </c>
-      <c r="D54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54">
-        <v>-100</v>
-      </c>
-      <c r="L54">
-        <v>-1</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54" t="s">
-        <v>83</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>31</v>
-      </c>
-      <c r="R54">
-        <v>410</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54" t="s">
-        <v>82</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y54">
-        <v>50</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB54">
-        <v>279511</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE54">
-        <v>351</v>
-      </c>
-      <c r="AF54">
-        <v>49923</v>
-      </c>
-      <c r="AG54">
-        <v>10735</v>
-      </c>
-      <c r="AH54" s="4">
-        <v>157808003498251</v>
-      </c>
-      <c r="AI54">
-        <v>41</v>
-      </c>
+    <row r="54" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH54" s="4"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>255</v>
-      </c>
-      <c r="B55">
-        <v>1060</v>
-      </c>
-      <c r="C55">
-        <v>3475627</v>
-      </c>
-      <c r="D55" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55">
-        <v>-100</v>
-      </c>
-      <c r="L55">
-        <v>-1</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
-        <v>83</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>31</v>
-      </c>
-      <c r="R55">
-        <v>3336</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55" t="s">
-        <v>82</v>
-      </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y55">
-        <v>50</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB55">
-        <v>279511</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE55">
-        <v>911</v>
-      </c>
-      <c r="AF55">
-        <v>21261</v>
-      </c>
-      <c r="AG55">
-        <v>11619</v>
-      </c>
-      <c r="AH55" s="4">
-        <v>157436755122439</v>
-      </c>
-      <c r="AI55">
-        <v>53</v>
-      </c>
+    <row r="55" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH55" s="4"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56">
-        <v>1060</v>
-      </c>
-      <c r="C56">
-        <v>3475627</v>
-      </c>
-      <c r="D56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s">
-        <v>82</v>
-      </c>
-      <c r="J56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56">
-        <v>-100</v>
-      </c>
-      <c r="L56">
-        <v>-1</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
-        <v>83</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>31</v>
-      </c>
-      <c r="R56">
-        <v>226</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56">
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56" t="s">
-        <v>82</v>
-      </c>
-      <c r="W56">
-        <v>1</v>
-      </c>
-      <c r="X56" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y56">
-        <v>50</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB56">
-        <v>279511</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE56">
-        <v>621</v>
-      </c>
-      <c r="AF56">
-        <v>15235</v>
-      </c>
-      <c r="AG56">
-        <v>13315</v>
-      </c>
-      <c r="AH56" s="4">
-        <v>157194340329835</v>
-      </c>
-      <c r="AI56">
-        <v>3</v>
-      </c>
+    <row r="56" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH56" s="4"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>258</v>
-      </c>
-      <c r="B57">
-        <v>1060</v>
-      </c>
-      <c r="C57">
-        <v>3475627</v>
-      </c>
-      <c r="D57" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" t="s">
-        <v>81</v>
-      </c>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" t="s">
-        <v>81</v>
-      </c>
-      <c r="K57">
-        <v>-100</v>
-      </c>
-      <c r="L57">
-        <v>-1</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>83</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>31</v>
-      </c>
-      <c r="R57">
-        <v>845</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="V57" t="s">
-        <v>82</v>
-      </c>
-      <c r="W57">
-        <v>1</v>
-      </c>
-      <c r="X57" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y57">
-        <v>50</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB57">
-        <v>279511</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE57">
-        <v>857</v>
-      </c>
-      <c r="AF57">
-        <v>39418</v>
-      </c>
-      <c r="AG57">
-        <v>11741</v>
-      </c>
-      <c r="AH57" s="4">
-        <v>156901655672164</v>
-      </c>
-      <c r="AI57">
-        <v>54</v>
-      </c>
+    <row r="57" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH57" s="4"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58">
-        <v>1060</v>
-      </c>
-      <c r="C58">
-        <v>3475627</v>
-      </c>
-      <c r="D58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-      <c r="J58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58">
-        <v>-100</v>
-      </c>
-      <c r="L58">
-        <v>-1</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
-        <v>83</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>31</v>
-      </c>
-      <c r="R58">
-        <v>416</v>
-      </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
-      <c r="T58">
-        <v>1</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
-      <c r="V58" t="s">
-        <v>82</v>
-      </c>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y58">
-        <v>50</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB58">
-        <v>279511</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE58">
-        <v>372</v>
-      </c>
-      <c r="AF58">
-        <v>49990</v>
-      </c>
-      <c r="AG58">
-        <v>12862</v>
-      </c>
-      <c r="AH58" s="4">
-        <v>156824970514743</v>
-      </c>
-      <c r="AI58">
-        <v>26</v>
-      </c>
+    <row r="58" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH58" s="4"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59">
-        <v>1060</v>
-      </c>
-      <c r="C59">
-        <v>3475627</v>
-      </c>
-      <c r="D59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-      <c r="J59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59">
-        <v>-100</v>
-      </c>
-      <c r="L59">
-        <v>-1</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
-        <v>83</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>31</v>
-      </c>
-      <c r="R59">
-        <v>63</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="T59">
-        <v>1</v>
-      </c>
-      <c r="U59">
-        <v>1</v>
-      </c>
-      <c r="V59" t="s">
-        <v>82</v>
-      </c>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y59">
-        <v>50</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB59">
-        <v>279511</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE59">
-        <v>116</v>
-      </c>
-      <c r="AF59">
-        <v>34014</v>
-      </c>
-      <c r="AG59">
-        <v>11261</v>
-      </c>
-      <c r="AH59" s="4">
-        <v>156516008495752</v>
-      </c>
-      <c r="AI59">
-        <v>4</v>
-      </c>
+    <row r="59" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH59" s="4"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60">
-        <v>1060</v>
-      </c>
-      <c r="C60">
-        <v>3475627</v>
-      </c>
-      <c r="D60" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" t="s">
-        <v>81</v>
-      </c>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" t="s">
-        <v>81</v>
-      </c>
-      <c r="K60">
-        <v>-100</v>
-      </c>
-      <c r="L60">
-        <v>-1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
-        <v>83</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>31</v>
-      </c>
-      <c r="R60">
-        <v>149</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>1</v>
-      </c>
-      <c r="U60">
-        <v>1</v>
-      </c>
-      <c r="V60" t="s">
-        <v>82</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y60">
-        <v>50</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB60">
-        <v>279511</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE60">
-        <v>887</v>
-      </c>
-      <c r="AF60">
-        <v>48584</v>
-      </c>
-      <c r="AG60">
-        <v>11788</v>
-      </c>
-      <c r="AH60" s="4">
-        <v>156185749125437</v>
-      </c>
-      <c r="AI60">
-        <v>13</v>
-      </c>
+    <row r="60" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH60" s="4"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61">
-        <v>1060</v>
-      </c>
-      <c r="C61">
-        <v>3475627</v>
-      </c>
-      <c r="D61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H61" t="s">
-        <v>81</v>
-      </c>
-      <c r="I61" t="s">
-        <v>82</v>
-      </c>
-      <c r="J61" t="s">
-        <v>81</v>
-      </c>
-      <c r="K61">
-        <v>-100</v>
-      </c>
-      <c r="L61">
-        <v>-1</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>83</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>31</v>
-      </c>
-      <c r="R61">
-        <v>777</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61" t="s">
-        <v>82</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y61">
-        <v>50</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB61">
-        <v>279511</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE61">
-        <v>82</v>
-      </c>
-      <c r="AF61">
-        <v>28976</v>
-      </c>
-      <c r="AG61">
-        <v>11658</v>
-      </c>
-      <c r="AH61" s="4">
-        <v>154476118940530</v>
-      </c>
-      <c r="AI61">
-        <v>36</v>
-      </c>
+    <row r="61" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH61" s="4"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62">
-        <v>1060</v>
-      </c>
-      <c r="C62">
-        <v>3475627</v>
-      </c>
-      <c r="D62" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" t="s">
-        <v>81</v>
-      </c>
-      <c r="I62" t="s">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62">
-        <v>-100</v>
-      </c>
-      <c r="L62">
-        <v>-1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>83</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>31</v>
-      </c>
-      <c r="R62">
-        <v>134</v>
-      </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>1</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62" t="s">
-        <v>82</v>
-      </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y62">
-        <v>50</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB62">
-        <v>279511</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE62">
-        <v>661</v>
-      </c>
-      <c r="AF62">
-        <v>16723</v>
-      </c>
-      <c r="AG62">
-        <v>12113</v>
-      </c>
-      <c r="AH62" s="4">
-        <v>154127080959520</v>
-      </c>
-      <c r="AI62">
-        <v>7</v>
-      </c>
+    <row r="62" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH62" s="4"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63">
-        <v>1060</v>
-      </c>
-      <c r="C63">
-        <v>3475627</v>
-      </c>
-      <c r="D63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-      <c r="I63" t="s">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s">
-        <v>81</v>
-      </c>
-      <c r="K63">
-        <v>-100</v>
-      </c>
-      <c r="L63">
-        <v>-1</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
-        <v>83</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>31</v>
-      </c>
-      <c r="R63">
-        <v>280</v>
-      </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
-      <c r="T63">
-        <v>1</v>
-      </c>
-      <c r="U63">
-        <v>1</v>
-      </c>
-      <c r="V63" t="s">
-        <v>82</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y63">
-        <v>50</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB63">
-        <v>279511</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE63">
-        <v>905</v>
-      </c>
-      <c r="AF63">
-        <v>3322</v>
-      </c>
-      <c r="AG63">
-        <v>12724</v>
-      </c>
-      <c r="AH63" s="4">
-        <v>151125123438281</v>
-      </c>
-      <c r="AI63">
-        <v>9</v>
-      </c>
+    <row r="63" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH63" s="4"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64">
-        <v>1060</v>
-      </c>
-      <c r="C64">
-        <v>3475627</v>
-      </c>
-      <c r="D64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64" t="s">
-        <v>82</v>
-      </c>
-      <c r="J64" t="s">
-        <v>81</v>
-      </c>
-      <c r="K64">
-        <v>-100</v>
-      </c>
-      <c r="L64">
-        <v>-1</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
-        <v>83</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>31</v>
-      </c>
-      <c r="R64">
-        <v>29</v>
-      </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
-      <c r="T64">
-        <v>1</v>
-      </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="V64" t="s">
-        <v>82</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y64">
-        <v>50</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB64">
-        <v>279511</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE64">
-        <v>253</v>
-      </c>
-      <c r="AF64">
-        <v>10265</v>
-      </c>
-      <c r="AG64">
-        <v>10891</v>
-      </c>
-      <c r="AH64" s="4">
-        <v>148586768115942</v>
-      </c>
-      <c r="AI64">
-        <v>16</v>
-      </c>
+    <row r="64" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH64" s="4"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65">
-        <v>1060</v>
-      </c>
-      <c r="C65">
-        <v>3475627</v>
-      </c>
-      <c r="D65" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-      <c r="I65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J65" t="s">
-        <v>81</v>
-      </c>
-      <c r="K65">
-        <v>-100</v>
-      </c>
-      <c r="L65">
-        <v>-1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
-        <v>83</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>31</v>
-      </c>
-      <c r="R65">
-        <v>147</v>
-      </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
-      <c r="T65">
-        <v>1</v>
-      </c>
-      <c r="U65">
-        <v>1</v>
-      </c>
-      <c r="V65" t="s">
-        <v>82</v>
-      </c>
-      <c r="W65">
-        <v>1</v>
-      </c>
-      <c r="X65" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y65">
-        <v>50</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB65">
-        <v>279511</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE65">
-        <v>8</v>
-      </c>
-      <c r="AF65">
-        <v>17844</v>
-      </c>
-      <c r="AG65">
-        <v>11877</v>
-      </c>
-      <c r="AH65" s="4">
-        <v>146440850074963</v>
-      </c>
-      <c r="AI65">
-        <v>32</v>
-      </c>
+    <row r="65" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH65" s="4"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66">
-        <v>1060</v>
-      </c>
-      <c r="C66">
-        <v>3475627</v>
-      </c>
-      <c r="D66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-      <c r="I66" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" t="s">
-        <v>81</v>
-      </c>
-      <c r="K66">
-        <v>-100</v>
-      </c>
-      <c r="L66">
-        <v>-1</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
-        <v>83</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>31</v>
-      </c>
-      <c r="R66">
-        <v>410</v>
-      </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="T66">
-        <v>1</v>
-      </c>
-      <c r="U66">
-        <v>1</v>
-      </c>
-      <c r="V66" t="s">
-        <v>82</v>
-      </c>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="X66" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y66">
-        <v>50</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB66">
-        <v>279511</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE66">
-        <v>542</v>
-      </c>
-      <c r="AF66">
-        <v>2127</v>
-      </c>
-      <c r="AG66">
-        <v>13500</v>
-      </c>
-      <c r="AH66" s="4">
-        <v>144782458770615</v>
-      </c>
-      <c r="AI66">
-        <v>5</v>
-      </c>
+    <row r="66" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH66" s="4"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67">
-        <v>1060</v>
-      </c>
-      <c r="C67">
-        <v>3475627</v>
-      </c>
-      <c r="D67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67" t="s">
-        <v>81</v>
-      </c>
-      <c r="K67">
-        <v>-100</v>
-      </c>
-      <c r="L67">
-        <v>-1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
-        <v>83</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>31</v>
-      </c>
-      <c r="R67">
-        <v>1152</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
-      <c r="V67" t="s">
-        <v>82</v>
-      </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="X67" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y67">
-        <v>50</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB67">
-        <v>279511</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE67">
-        <v>500</v>
-      </c>
-      <c r="AF67">
-        <v>8456</v>
-      </c>
-      <c r="AG67">
-        <v>13122</v>
-      </c>
-      <c r="AH67" s="4">
-        <v>144647349325337</v>
-      </c>
-      <c r="AI67">
-        <v>12</v>
-      </c>
+    <row r="67" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI67" xr:uid="{D469D383-DE4C-4EB3-84E8-ED97B3924408}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI67">
-      <sortCondition descending="1" ref="AH1:AH67"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/German/Clase 14/Performance clase 14.xlsx
+++ b/German/Clase 14/Performance clase 14.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\Clase 14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD85FF-DC6B-4A5D-B558-D14F0ADE9869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68912DEB-D6B2-4F60-9BA9-35E8FF5807A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>Estímulos</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">Demora aplicación lgbm 1 semilla: </t>
+  </si>
+  <si>
+    <t>Semillerio 100</t>
   </si>
 </sst>
 </file>
@@ -3671,52 +3674,109 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$B$7:$B$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$B$4:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>118.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>130.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.00">
+                  <c:v>128.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>124.88500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>121.035</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>120.825</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>120.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.00">
+                  <c:v>119.355</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.00">
+                  <c:v>118.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0.00">
+                  <c:v>117.464</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>116.554</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>119.145</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>115.78400000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3767,42 +3827,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,42 +3935,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,42 +4043,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,42 +4151,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,42 +4259,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,42 +4371,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,42 +4485,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,42 +4602,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4563,42 +4719,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Semill búsqueda de la meseta'!$A$7:$A$17</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>11000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>13000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>14000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,7 +4924,7 @@
         <c:axId val="11533312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="90"/>
+          <c:min val="115"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12840,6 +13008,39 @@
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>118.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>130.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.00">
+                  <c:v>128.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>124.88500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>121.035</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>120.825</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>120.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.00">
+                  <c:v>119.355</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.00">
+                  <c:v>118.30500000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -30054,7 +30255,7 @@
       <selection activeCell="E8" sqref="E8"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B21"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30115,7 +30316,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="74" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C2" s="74"/>
       <c r="E2" s="74" t="s">
@@ -30228,7 +30429,9 @@
       <c r="A4" s="2">
         <v>8000</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>118.30500000000001</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="25"/>
       <c r="F4" s="25"/>
@@ -30246,7 +30449,9 @@
       <c r="A5" s="2">
         <v>8500</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>119.77500000000001</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="25"/>
       <c r="F5" s="25"/>
@@ -30264,7 +30469,9 @@
       <c r="A6" s="2">
         <v>9000</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>132.86500000000001</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="25"/>
       <c r="F6" s="25"/>
@@ -30282,7 +30489,9 @@
       <c r="A7" s="2">
         <v>9500</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="57">
+        <v>130.13499999999999</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="25"/>
       <c r="F7" s="25"/>
@@ -30300,7 +30509,9 @@
       <c r="A8" s="2">
         <v>10000</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="57">
+        <v>128.94499999999999</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="25"/>
       <c r="F8" s="25"/>
@@ -30318,7 +30529,9 @@
       <c r="A9" s="2">
         <v>10500</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="57">
+        <v>124.88500000000001</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="25"/>
       <c r="F9" s="25"/>
@@ -30336,7 +30549,9 @@
       <c r="A10" s="2">
         <v>11000</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="57">
+        <v>121.035</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="25"/>
       <c r="F10" s="25"/>
@@ -30354,7 +30569,9 @@
       <c r="A11" s="2">
         <v>11500</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="57">
+        <v>120.825</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="25"/>
       <c r="F11" s="25"/>
@@ -30372,7 +30589,9 @@
       <c r="A12" s="2">
         <v>12000</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="57">
+        <v>120.33499999999999</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="25"/>
       <c r="F12" s="25"/>
@@ -30390,7 +30609,9 @@
       <c r="A13" s="2">
         <v>12500</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="57">
+        <v>119.355</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="25"/>
       <c r="F13" s="25"/>
@@ -30408,7 +30629,9 @@
       <c r="A14" s="2">
         <v>13000</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="57">
+        <v>118.30500000000001</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="25"/>
       <c r="F14" s="25"/>
@@ -30426,22 +30649,33 @@
       <c r="A15" s="2">
         <v>13500</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="57">
+        <v>117.464</v>
+      </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14000</v>
       </c>
+      <c r="B16" s="1">
+        <v>116.554</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14500</v>
       </c>
+      <c r="B17" s="1">
+        <v>119.145</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>115.78400000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -32104,7 +32338,7 @@
       </c>
       <c r="B5" s="10">
         <f>+'Semill búsqueda de la meseta'!B4</f>
-        <v>0</v>
+        <v>118.30500000000001</v>
       </c>
       <c r="C5" s="10">
         <f>+'Semill búsqueda de la meseta'!E4</f>
@@ -32122,9 +32356,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G5" s="11" t="e">
+      <c r="G5" s="11">
         <f>+AVERAGEIFS(B5:F5,B5:F5,"&lt;&gt;0")</f>
-        <v>#DIV/0!</v>
+        <v>118.30500000000001</v>
       </c>
       <c r="J5" s="12">
         <f>+A5</f>
@@ -32184,7 +32418,7 @@
       </c>
       <c r="B6" s="10">
         <f>+'Semill búsqueda de la meseta'!B5</f>
-        <v>0</v>
+        <v>119.77500000000001</v>
       </c>
       <c r="C6" s="10">
         <f>+'Semill búsqueda de la meseta'!E5</f>
@@ -32202,9 +32436,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G6" s="11" t="e">
+      <c r="G6" s="11">
         <f t="shared" ref="G6:G15" si="1">+AVERAGEIFS(B6:F6,B6:F6,"&lt;&gt;0")</f>
-        <v>#DIV/0!</v>
+        <v>119.77500000000001</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" ref="J6:J15" si="2">+A6</f>
@@ -32264,7 +32498,7 @@
       </c>
       <c r="B7" s="10">
         <f>+'Semill búsqueda de la meseta'!B6</f>
-        <v>0</v>
+        <v>132.86500000000001</v>
       </c>
       <c r="C7" s="10">
         <f>+'Semill búsqueda de la meseta'!E6</f>
@@ -32282,9 +32516,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="e">
+      <c r="G7" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>132.86500000000001</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="2"/>
@@ -32344,7 +32578,7 @@
       </c>
       <c r="B8" s="10">
         <f>+'Semill búsqueda de la meseta'!B7</f>
-        <v>0</v>
+        <v>130.13499999999999</v>
       </c>
       <c r="C8" s="10">
         <f>+'Semill búsqueda de la meseta'!E7</f>
@@ -32362,9 +32596,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="e">
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>130.13499999999999</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="2"/>
@@ -32403,7 +32637,7 @@
       </c>
       <c r="B9" s="10">
         <f>+'Semill búsqueda de la meseta'!B8</f>
-        <v>0</v>
+        <v>128.94499999999999</v>
       </c>
       <c r="C9" s="10">
         <f>+'Semill búsqueda de la meseta'!E8</f>
@@ -32421,9 +32655,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G9" s="11" t="e">
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>128.94499999999999</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="2"/>
@@ -32461,7 +32695,7 @@
       </c>
       <c r="B10" s="10">
         <f>+'Semill búsqueda de la meseta'!B9</f>
-        <v>0</v>
+        <v>124.88500000000001</v>
       </c>
       <c r="C10" s="10">
         <f>+'Semill búsqueda de la meseta'!E9</f>
@@ -32479,9 +32713,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G10" s="11" t="e">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>124.88500000000001</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="2"/>
@@ -32519,7 +32753,7 @@
       </c>
       <c r="B11" s="10">
         <f>+'Semill búsqueda de la meseta'!B10</f>
-        <v>0</v>
+        <v>121.035</v>
       </c>
       <c r="C11" s="10">
         <f>+'Semill búsqueda de la meseta'!E10</f>
@@ -32537,9 +32771,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G11" s="11" t="e">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>121.035</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" ref="J11" si="4">+A11</f>
@@ -32577,7 +32811,7 @@
       </c>
       <c r="B12" s="10">
         <f>+'Semill búsqueda de la meseta'!B11</f>
-        <v>0</v>
+        <v>120.825</v>
       </c>
       <c r="C12" s="10">
         <f>+'Semill búsqueda de la meseta'!E11</f>
@@ -32595,9 +32829,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G12" s="11" t="e">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>120.825</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="2"/>
@@ -32635,7 +32869,7 @@
       </c>
       <c r="B13" s="10">
         <f>+'Semill búsqueda de la meseta'!B12</f>
-        <v>0</v>
+        <v>120.33499999999999</v>
       </c>
       <c r="C13" s="10">
         <f>+'Semill búsqueda de la meseta'!E12</f>
@@ -32653,9 +32887,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G13" s="11" t="e">
+      <c r="G13" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>120.33499999999999</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="2"/>
@@ -32693,7 +32927,7 @@
       </c>
       <c r="B14" s="10">
         <f>+'Semill búsqueda de la meseta'!B13</f>
-        <v>0</v>
+        <v>119.355</v>
       </c>
       <c r="C14" s="10">
         <f>+'Semill búsqueda de la meseta'!E13</f>
@@ -32711,9 +32945,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G14" s="11" t="e">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>119.355</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="2"/>
@@ -32751,7 +32985,7 @@
       </c>
       <c r="B15" s="10">
         <f>+'Semill búsqueda de la meseta'!B14</f>
-        <v>0</v>
+        <v>118.30500000000001</v>
       </c>
       <c r="C15" s="10">
         <f>+'Semill búsqueda de la meseta'!E14</f>
@@ -32769,9 +33003,9 @@
         <f>+'Semill búsqueda de la meseta'!$N$4</f>
         <v>0</v>
       </c>
-      <c r="G15" s="11" t="e">
+      <c r="G15" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>118.30500000000001</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="2"/>
@@ -32806,9 +33040,9 @@
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40" t="e">
+      <c r="B16" s="40">
         <f>+AVERAGEIFS(B5:B15,B5:B15,"&lt;&gt;0")</f>
-        <v>#DIV/0!</v>
+        <v>123.16045454545456</v>
       </c>
       <c r="C16" s="40" t="e">
         <f t="shared" ref="C16:G16" si="5">+AVERAGEIFS(C5:C15,C5:C15,"&lt;&gt;0")</f>
@@ -32826,9 +33060,9 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="41" t="e">
+      <c r="G16" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>123.16045454545456</v>
       </c>
       <c r="J16" s="7"/>
     </row>

--- a/German/Clase 14/Performance clase 14.xlsx
+++ b/German/Clase 14/Performance clase 14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\Clase 14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68912DEB-D6B2-4F60-9BA9-35E8FF5807A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00A3B3-AEA3-49A7-839A-5506FCAF83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fechas del Experimento" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="305">
   <si>
     <t>Estímulos</t>
   </si>
@@ -281,6 +281,714 @@
   </si>
   <si>
     <t>Semillerio 100</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>boosting</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>first_metric_only</t>
+  </si>
+  <si>
+    <t>boost_from_average</t>
+  </si>
+  <si>
+    <t>feature_pre_filter</t>
+  </si>
+  <si>
+    <t>force_row_wise</t>
+  </si>
+  <si>
+    <t>verbosity</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>min_gain_to_split</t>
+  </si>
+  <si>
+    <t>min_sum_hessian_in_leaf</t>
+  </si>
+  <si>
+    <t>lambda_l1</t>
+  </si>
+  <si>
+    <t>lambda_l2</t>
+  </si>
+  <si>
+    <t>max_bin</t>
+  </si>
+  <si>
+    <t>bagging_fraction</t>
+  </si>
+  <si>
+    <t>pos_bagging_fraction</t>
+  </si>
+  <si>
+    <t>neg_bagging_fraction</t>
+  </si>
+  <si>
+    <t>is_unbalance</t>
+  </si>
+  <si>
+    <t>scale_pos_weight</t>
+  </si>
+  <si>
+    <t>drop_rate</t>
+  </si>
+  <si>
+    <t>max_drop</t>
+  </si>
+  <si>
+    <t>skip_drop</t>
+  </si>
+  <si>
+    <t>extra_trees</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>estimulos</t>
+  </si>
+  <si>
+    <t>ganancia</t>
+  </si>
+  <si>
+    <t>iteracion_bayesiana</t>
+  </si>
+  <si>
+    <t>20231108 154239</t>
+  </si>
+  <si>
+    <t>gbdt</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.13694120913744</t>
+  </si>
+  <si>
+    <t>0.511200065682206</t>
+  </si>
+  <si>
+    <t>20231108 163404</t>
+  </si>
+  <si>
+    <t>0.10871455284534</t>
+  </si>
+  <si>
+    <t>0.383395616570779</t>
+  </si>
+  <si>
+    <t>20231108 170820</t>
+  </si>
+  <si>
+    <t>0.153177819112316</t>
+  </si>
+  <si>
+    <t>0.276715104630857</t>
+  </si>
+  <si>
+    <t>20231108 172755</t>
+  </si>
+  <si>
+    <t>0.271073784258333</t>
+  </si>
+  <si>
+    <t>0.78185350669577</t>
+  </si>
+  <si>
+    <t>20231108 181336</t>
+  </si>
+  <si>
+    <t>0.238883439445053</t>
+  </si>
+  <si>
+    <t>0.644795008537039</t>
+  </si>
+  <si>
+    <t>20231108 184616</t>
+  </si>
+  <si>
+    <t>0.0900664854224306</t>
+  </si>
+  <si>
+    <t>0.0754280283300613</t>
+  </si>
+  <si>
+    <t>20231108 191205</t>
+  </si>
+  <si>
+    <t>0.186720657731057</t>
+  </si>
+  <si>
+    <t>0.696503204608016</t>
+  </si>
+  <si>
+    <t>20231108 200941</t>
+  </si>
+  <si>
+    <t>0.0429818473849446</t>
+  </si>
+  <si>
+    <t>0.840359180488013</t>
+  </si>
+  <si>
+    <t>20231108 210000</t>
+  </si>
+  <si>
+    <t>0.166457323828363</t>
+  </si>
+  <si>
+    <t>0.380679800144862</t>
+  </si>
+  <si>
+    <t>20231108 223808</t>
+  </si>
+  <si>
+    <t>0.0768787990038982</t>
+  </si>
+  <si>
+    <t>0.575646079617873</t>
+  </si>
+  <si>
+    <t>20231108 232432</t>
+  </si>
+  <si>
+    <t>0.199060535248718</t>
+  </si>
+  <si>
+    <t>0.482284466433484</t>
+  </si>
+  <si>
+    <t>20231109 000053</t>
+  </si>
+  <si>
+    <t>0.218087663662154</t>
+  </si>
+  <si>
+    <t>0.0349420346751867</t>
+  </si>
+  <si>
+    <t>20231109 002200</t>
+  </si>
+  <si>
+    <t>0.247791156655876</t>
+  </si>
+  <si>
+    <t>0.936292199923046</t>
+  </si>
+  <si>
+    <t>20231109 022245</t>
+  </si>
+  <si>
+    <t>0.0278307219524868</t>
+  </si>
+  <si>
+    <t>0.240808322774392</t>
+  </si>
+  <si>
+    <t>20231109 031809</t>
+  </si>
+  <si>
+    <t>0.0708034699544078</t>
+  </si>
+  <si>
+    <t>0.142060961340176</t>
+  </si>
+  <si>
+    <t>20231109 034107</t>
+  </si>
+  <si>
+    <t>0.291614252373693</t>
+  </si>
+  <si>
+    <t>0.946646284638409</t>
+  </si>
+  <si>
+    <t>20231109 043328</t>
+  </si>
+  <si>
+    <t>0.150919599926709</t>
+  </si>
+  <si>
+    <t>0.649521529560216</t>
+  </si>
+  <si>
+    <t>20231109 052854</t>
+  </si>
+  <si>
+    <t>0.0699710224932274</t>
+  </si>
+  <si>
+    <t>0.399463187102189</t>
+  </si>
+  <si>
+    <t>20231109 060453</t>
+  </si>
+  <si>
+    <t>0.124666412025052</t>
+  </si>
+  <si>
+    <t>0.191652743642873</t>
+  </si>
+  <si>
+    <t>20231109 064756</t>
+  </si>
+  <si>
+    <t>0.106933988801762</t>
+  </si>
+  <si>
+    <t>0.410167137196264</t>
+  </si>
+  <si>
+    <t>20231109 075231</t>
+  </si>
+  <si>
+    <t>0.0931284121540642</t>
+  </si>
+  <si>
+    <t>0.341922107606885</t>
+  </si>
+  <si>
+    <t>20231109 095249</t>
+  </si>
+  <si>
+    <t>0.0200497093534557</t>
+  </si>
+  <si>
+    <t>0.356563234958801</t>
+  </si>
+  <si>
+    <t>20231109 131619</t>
+  </si>
+  <si>
+    <t>0.0200024436078638</t>
+  </si>
+  <si>
+    <t>0.369055150529493</t>
+  </si>
+  <si>
+    <t>20231109 163241</t>
+  </si>
+  <si>
+    <t>0.0200062379382852</t>
+  </si>
+  <si>
+    <t>0.317031826081888</t>
+  </si>
+  <si>
+    <t>20231109 201319</t>
+  </si>
+  <si>
+    <t>0.0200185122629107</t>
+  </si>
+  <si>
+    <t>0.427183699009456</t>
+  </si>
+  <si>
+    <t>20231109 204626</t>
+  </si>
+  <si>
+    <t>0.0200302938552546</t>
+  </si>
+  <si>
+    <t>0.118157216964097</t>
+  </si>
+  <si>
+    <t>20231110 010238</t>
+  </si>
+  <si>
+    <t>0.0200456177073775</t>
+  </si>
+  <si>
+    <t>0.501535689414703</t>
+  </si>
+  <si>
+    <t>20231110 024144</t>
+  </si>
+  <si>
+    <t>0.0200109613902827</t>
+  </si>
+  <si>
+    <t>0.948631391399936</t>
+  </si>
+  <si>
+    <t>20231110 043644</t>
+  </si>
+  <si>
+    <t>0.0200332208504161</t>
+  </si>
+  <si>
+    <t>0.677890679169388</t>
+  </si>
+  <si>
+    <t>20231110 075213</t>
+  </si>
+  <si>
+    <t>0.0200310005740484</t>
+  </si>
+  <si>
+    <t>0.442654811222386</t>
+  </si>
+  <si>
+    <t>20231110 102403</t>
+  </si>
+  <si>
+    <t>0.0200200050398915</t>
+  </si>
+  <si>
+    <t>0.310585765163549</t>
+  </si>
+  <si>
+    <t>20231110 105933</t>
+  </si>
+  <si>
+    <t>0.020026725511702</t>
+  </si>
+  <si>
+    <t>0.319415385490926</t>
+  </si>
+  <si>
+    <t>20231110 143854</t>
+  </si>
+  <si>
+    <t>0.0200220212292129</t>
+  </si>
+  <si>
+    <t>0.51288811593979</t>
+  </si>
+  <si>
+    <t>20231110 165101</t>
+  </si>
+  <si>
+    <t>0.0200955636430517</t>
+  </si>
+  <si>
+    <t>0.284966255126795</t>
+  </si>
+  <si>
+    <t>20231110 195348</t>
+  </si>
+  <si>
+    <t>0.0200235338183377</t>
+  </si>
+  <si>
+    <t>0.571309340374125</t>
+  </si>
+  <si>
+    <t>20231110 202228</t>
+  </si>
+  <si>
+    <t>0.0202652065091095</t>
+  </si>
+  <si>
+    <t>0.027463157106789</t>
+  </si>
+  <si>
+    <t>20231110 223352</t>
+  </si>
+  <si>
+    <t>0.0203191334496046</t>
+  </si>
+  <si>
+    <t>0.279734961023958</t>
+  </si>
+  <si>
+    <t>20231111 001643</t>
+  </si>
+  <si>
+    <t>0.0484498569048209</t>
+  </si>
+  <si>
+    <t>0.358041523396854</t>
+  </si>
+  <si>
+    <t>20231111 023102</t>
+  </si>
+  <si>
+    <t>0.0253641002678609</t>
+  </si>
+  <si>
+    <t>0.367193797812405</t>
+  </si>
+  <si>
+    <t>20231111 050508</t>
+  </si>
+  <si>
+    <t>0.023688966063097</t>
+  </si>
+  <si>
+    <t>0.406232255653876</t>
+  </si>
+  <si>
+    <t>20231111 053652</t>
+  </si>
+  <si>
+    <t>0.10541988729076</t>
+  </si>
+  <si>
+    <t>0.894190483794578</t>
+  </si>
+  <si>
+    <t>20231111 062314</t>
+  </si>
+  <si>
+    <t>0.0987763492683858</t>
+  </si>
+  <si>
+    <t>0.28882473012031</t>
+  </si>
+  <si>
+    <t>20231111 070349</t>
+  </si>
+  <si>
+    <t>0.0201065780676226</t>
+  </si>
+  <si>
+    <t>0.0815413268357012</t>
+  </si>
+  <si>
+    <t>20231111 085100</t>
+  </si>
+  <si>
+    <t>0.0498154940962305</t>
+  </si>
+  <si>
+    <t>0.51667112175792</t>
+  </si>
+  <si>
+    <t>20231111 093207</t>
+  </si>
+  <si>
+    <t>0.124459252402726</t>
+  </si>
+  <si>
+    <t>0.309761137443855</t>
+  </si>
+  <si>
+    <t>20231111 104913</t>
+  </si>
+  <si>
+    <t>0.104743701955437</t>
+  </si>
+  <si>
+    <t>0.381067261848911</t>
+  </si>
+  <si>
+    <t>20231111 113601</t>
+  </si>
+  <si>
+    <t>0.110487228690998</t>
+  </si>
+  <si>
+    <t>0.587036102303042</t>
+  </si>
+  <si>
+    <t>20231111 120705</t>
+  </si>
+  <si>
+    <t>0.109574046756045</t>
+  </si>
+  <si>
+    <t>0.829602772651658</t>
+  </si>
+  <si>
+    <t>20231111 155657</t>
+  </si>
+  <si>
+    <t>0.0202502631664864</t>
+  </si>
+  <si>
+    <t>0.575989840169381</t>
+  </si>
+  <si>
+    <t>20231111 172736</t>
+  </si>
+  <si>
+    <t>0.0345659103442813</t>
+  </si>
+  <si>
+    <t>0.279888352003939</t>
+  </si>
+  <si>
+    <t>20231111 194131</t>
+  </si>
+  <si>
+    <t>0.0203510526826541</t>
+  </si>
+  <si>
+    <t>0.59967338896361</t>
+  </si>
+  <si>
+    <t>20231111 224416</t>
+  </si>
+  <si>
+    <t>0.0202023736505433</t>
+  </si>
+  <si>
+    <t>0.220543561621428</t>
+  </si>
+  <si>
+    <t>20231112 025146</t>
+  </si>
+  <si>
+    <t>0.020026938522828</t>
+  </si>
+  <si>
+    <t>0.401976779048526</t>
+  </si>
+  <si>
+    <t>20231112 041654</t>
+  </si>
+  <si>
+    <t>0.0864012002173474</t>
+  </si>
+  <si>
+    <t>0.486295689500959</t>
+  </si>
+  <si>
+    <t>20231112 050910</t>
+  </si>
+  <si>
+    <t>0.0843024576709326</t>
+  </si>
+  <si>
+    <t>0.454581025124445</t>
+  </si>
+  <si>
+    <t>20231112 055523</t>
+  </si>
+  <si>
+    <t>0.11562187978179</t>
+  </si>
+  <si>
+    <t>0.208978107458956</t>
+  </si>
+  <si>
+    <t>20231112 063354</t>
+  </si>
+  <si>
+    <t>0.0343200950238001</t>
+  </si>
+  <si>
+    <t>0.146639353150355</t>
+  </si>
+  <si>
+    <t>20231112 072410</t>
+  </si>
+  <si>
+    <t>0.0200130052818905</t>
+  </si>
+  <si>
+    <t>0.108237242214264</t>
+  </si>
+  <si>
+    <t>20231112 082748</t>
+  </si>
+  <si>
+    <t>0.0506215495519403</t>
+  </si>
+  <si>
+    <t>0.235572865063253</t>
+  </si>
+  <si>
+    <t>20231112 090505</t>
+  </si>
+  <si>
+    <t>0.112641126164828</t>
+  </si>
+  <si>
+    <t>0.0509661067652242</t>
+  </si>
+  <si>
+    <t>20231112 103300</t>
+  </si>
+  <si>
+    <t>0.044781077842626</t>
+  </si>
+  <si>
+    <t>0.548968068211159</t>
+  </si>
+  <si>
+    <t>20231112 113402</t>
+  </si>
+  <si>
+    <t>0.0292608373298842</t>
+  </si>
+  <si>
+    <t>0.136781998386116</t>
+  </si>
+  <si>
+    <t>20231112 130443</t>
+  </si>
+  <si>
+    <t>0.0370106867374484</t>
+  </si>
+  <si>
+    <t>0.127814392932029</t>
+  </si>
+  <si>
+    <t>20231112 134057</t>
+  </si>
+  <si>
+    <t>0.158241150441061</t>
+  </si>
+  <si>
+    <t>0.288763424908378</t>
+  </si>
+  <si>
+    <t>20231112 153016</t>
+  </si>
+  <si>
+    <t>0.0268374241680421</t>
+  </si>
+  <si>
+    <t>0.863448120010119</t>
+  </si>
+  <si>
+    <t>20231112 171347</t>
+  </si>
+  <si>
+    <t>0.0314763269263399</t>
+  </si>
+  <si>
+    <t>0.281734982085869</t>
   </si>
 </sst>
 </file>
@@ -30250,12 +30958,12 @@
   </sheetPr>
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E8" sqref="E8"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32148,8 +32856,8 @@
   </sheetPr>
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32243,7 +32951,7 @@
       </c>
       <c r="U3" s="21">
         <f>+'BO Base Sem 1'!R2</f>
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="V3" s="21" t="e">
         <f>+#REF!</f>
@@ -32312,9 +33020,9 @@
       <c r="T4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="21" t="str">
         <f>+'BO Base Sem 1'!AC2</f>
-        <v>0</v>
+        <v>0.0292608373298842</v>
       </c>
       <c r="V4" s="21" t="e">
         <f>+#REF!</f>
@@ -32392,9 +33100,9 @@
       <c r="T5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="21" t="str">
         <f>+'BO Base Sem 1'!AD2</f>
-        <v>0</v>
+        <v>0.136781998386116</v>
       </c>
       <c r="V5" s="21" t="e">
         <f>+#REF!</f>
@@ -32474,7 +33182,7 @@
       </c>
       <c r="U6" s="21">
         <f>+'BO Base Sem 1'!AF2</f>
-        <v>0</v>
+        <v>43158</v>
       </c>
       <c r="V6" s="21" t="e">
         <f>+#REF!</f>
@@ -32554,7 +33262,7 @@
       </c>
       <c r="U7" s="21">
         <f>+'BO Base Sem 1'!AE2</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="V7" s="21" t="e">
         <f>+#REF!</f>
@@ -33882,13 +34590,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:AI67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33896,375 +34604,7181 @@
     <col min="34" max="34" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="22"/>
+      <c r="A2" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1060</v>
+      </c>
+      <c r="C2" s="22">
+        <v>3475627</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="22">
+        <v>-100</v>
+      </c>
+      <c r="L2" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>31</v>
+      </c>
+      <c r="R2" s="24">
+        <v>1213</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>1</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="22">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>279511</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE2" s="24">
+        <v>342</v>
+      </c>
+      <c r="AF2" s="24">
+        <v>43158</v>
+      </c>
+      <c r="AG2" s="22">
+        <v>12061</v>
+      </c>
+      <c r="AH2" s="23">
+        <v>164347052973513</v>
+      </c>
+      <c r="AI2" s="22">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="22"/>
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3">
+        <v>1060</v>
+      </c>
+      <c r="C3">
+        <v>3475627</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
+        <v>-100</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>31</v>
+      </c>
+      <c r="R3">
+        <v>561</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y3">
+        <v>50</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3">
+        <v>279511</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE3">
+        <v>295</v>
+      </c>
+      <c r="AF3">
+        <v>42234</v>
+      </c>
+      <c r="AG3">
+        <v>11603</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>163984557221389</v>
+      </c>
+      <c r="AI3">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="22"/>
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4">
+        <v>1060</v>
+      </c>
+      <c r="C4">
+        <v>3475627</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
+        <v>-100</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>2147</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y4">
+        <v>50</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB4">
+        <v>279511</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE4">
+        <v>331</v>
+      </c>
+      <c r="AF4">
+        <v>22431</v>
+      </c>
+      <c r="AG4">
+        <v>11483</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>163900739130435</v>
+      </c>
+      <c r="AI4">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="22"/>
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5">
+        <v>1060</v>
+      </c>
+      <c r="C5">
+        <v>3475627</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
+        <v>-100</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>31</v>
+      </c>
+      <c r="R5">
+        <v>799</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y5">
+        <v>50</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB5">
+        <v>279511</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE5">
+        <v>247</v>
+      </c>
+      <c r="AF5">
+        <v>49996</v>
+      </c>
+      <c r="AG5">
+        <v>13296</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>162908729635182</v>
+      </c>
+      <c r="AI5">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="22"/>
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6">
+        <v>1060</v>
+      </c>
+      <c r="C6">
+        <v>3475627</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
+        <v>-100</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>31</v>
+      </c>
+      <c r="R6">
+        <v>2985</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y6">
+        <v>50</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6">
+        <v>279511</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE6">
+        <v>356</v>
+      </c>
+      <c r="AF6">
+        <v>49985</v>
+      </c>
+      <c r="AG6">
+        <v>12615</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>162833170914543</v>
+      </c>
+      <c r="AI6">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH7" s="4"/>
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7">
+        <v>1060</v>
+      </c>
+      <c r="C7">
+        <v>3475627</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
+        <v>-100</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>31</v>
+      </c>
+      <c r="R7">
+        <v>2011</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y7">
+        <v>50</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB7">
+        <v>279511</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE7">
+        <v>336</v>
+      </c>
+      <c r="AF7">
+        <v>26149</v>
+      </c>
+      <c r="AG7">
+        <v>11635</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>162801896551724</v>
+      </c>
+      <c r="AI7">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH8" s="4"/>
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8">
+        <v>1060</v>
+      </c>
+      <c r="C8">
+        <v>3475627</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
+        <v>-100</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>31</v>
+      </c>
+      <c r="R8">
+        <v>2476</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8">
+        <v>50</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8">
+        <v>279511</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE8">
+        <v>521</v>
+      </c>
+      <c r="AF8">
+        <v>49997</v>
+      </c>
+      <c r="AG8">
+        <v>11297</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>162726677161419</v>
+      </c>
+      <c r="AI8">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH9" s="4"/>
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9">
+        <v>1060</v>
+      </c>
+      <c r="C9">
+        <v>3475627</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
+        <v>-100</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>31</v>
+      </c>
+      <c r="R9">
+        <v>2900</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9">
+        <v>50</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB9">
+        <v>279511</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE9">
+        <v>521</v>
+      </c>
+      <c r="AF9">
+        <v>45504</v>
+      </c>
+      <c r="AG9">
+        <v>11699</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>162428339330335</v>
+      </c>
+      <c r="AI9">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH10" s="4"/>
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10">
+        <v>1060</v>
+      </c>
+      <c r="C10">
+        <v>3475627</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
+        <v>-100</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>31</v>
+      </c>
+      <c r="R10">
+        <v>1127</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>104</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10">
+        <v>50</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB10">
+        <v>279511</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE10">
+        <v>417</v>
+      </c>
+      <c r="AF10">
+        <v>47077</v>
+      </c>
+      <c r="AG10">
+        <v>11833</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>162109389805097</v>
+      </c>
+      <c r="AI10">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH11" s="4"/>
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11">
+        <v>1060</v>
+      </c>
+      <c r="C11">
+        <v>3475627</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
+        <v>-100</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>31</v>
+      </c>
+      <c r="R11">
+        <v>669</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>104</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y11">
+        <v>50</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB11">
+        <v>279511</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE11">
+        <v>44</v>
+      </c>
+      <c r="AF11">
+        <v>40013</v>
+      </c>
+      <c r="AG11">
+        <v>12123</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>162052963018491</v>
+      </c>
+      <c r="AI11">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH12" s="4"/>
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>1060</v>
+      </c>
+      <c r="C12">
+        <v>3475627</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12">
+        <v>-100</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>31</v>
+      </c>
+      <c r="R12">
+        <v>366</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12">
+        <v>50</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB12">
+        <v>279511</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE12">
+        <v>371</v>
+      </c>
+      <c r="AF12">
+        <v>38535</v>
+      </c>
+      <c r="AG12">
+        <v>12994</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>162029066466767</v>
+      </c>
+      <c r="AI12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH13" s="4"/>
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13">
+        <v>1060</v>
+      </c>
+      <c r="C13">
+        <v>3475627</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13">
+        <v>-100</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>31</v>
+      </c>
+      <c r="R13">
+        <v>3247</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>104</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y13">
+        <v>50</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB13">
+        <v>279511</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE13">
+        <v>282</v>
+      </c>
+      <c r="AF13">
+        <v>43687</v>
+      </c>
+      <c r="AG13">
+        <v>11807</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>161964233383308</v>
+      </c>
+      <c r="AI13">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH14" s="4"/>
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14">
+        <v>1060</v>
+      </c>
+      <c r="C14">
+        <v>3475627</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14">
+        <v>-100</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>31</v>
+      </c>
+      <c r="R14">
+        <v>2246</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>104</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y14">
+        <v>50</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14">
+        <v>279511</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE14">
+        <v>310</v>
+      </c>
+      <c r="AF14">
+        <v>44286</v>
+      </c>
+      <c r="AG14">
+        <v>11390</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>161951559220390</v>
+      </c>
+      <c r="AI14">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH15" s="4"/>
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15">
+        <v>1060</v>
+      </c>
+      <c r="C15">
+        <v>3475627</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15">
+        <v>-100</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>31</v>
+      </c>
+      <c r="R15">
+        <v>2035</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>104</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y15">
+        <v>50</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB15">
+        <v>279511</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE15">
+        <v>207</v>
+      </c>
+      <c r="AF15">
+        <v>48251</v>
+      </c>
+      <c r="AG15">
+        <v>11367</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>161836477261369</v>
+      </c>
+      <c r="AI15">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH16" s="4"/>
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16">
+        <v>1060</v>
+      </c>
+      <c r="C16">
+        <v>3475627</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16">
+        <v>-100</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>31</v>
+      </c>
+      <c r="R16">
+        <v>1271</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y16">
+        <v>50</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB16">
+        <v>279511</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE16">
+        <v>369</v>
+      </c>
+      <c r="AF16">
+        <v>23198</v>
+      </c>
+      <c r="AG16">
+        <v>11634</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>161753824087956</v>
+      </c>
+      <c r="AI16">
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH17" s="4"/>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17">
+        <v>1060</v>
+      </c>
+      <c r="C17">
+        <v>3475627</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17">
+        <v>-100</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>31</v>
+      </c>
+      <c r="R17">
+        <v>1142</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>104</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y17">
+        <v>50</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB17">
+        <v>279511</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE17">
+        <v>323</v>
+      </c>
+      <c r="AF17">
+        <v>40135</v>
+      </c>
+      <c r="AG17">
+        <v>11928</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>161709277361319</v>
+      </c>
+      <c r="AI17">
+        <v>60</v>
+      </c>
     </row>
-    <row r="18" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH18" s="4"/>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18">
+        <v>1060</v>
+      </c>
+      <c r="C18">
+        <v>3475627</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18">
+        <v>-100</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>31</v>
+      </c>
+      <c r="R18">
+        <v>2746</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y18">
+        <v>50</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB18">
+        <v>279511</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE18">
+        <v>624</v>
+      </c>
+      <c r="AF18">
+        <v>43721</v>
+      </c>
+      <c r="AG18">
+        <v>11668</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>161666808595702</v>
+      </c>
+      <c r="AI18">
+        <v>49</v>
+      </c>
     </row>
-    <row r="19" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH19" s="4"/>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19">
+        <v>1060</v>
+      </c>
+      <c r="C19">
+        <v>3475627</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19">
+        <v>-100</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+      <c r="R19">
+        <v>1768</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y19">
+        <v>50</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB19">
+        <v>279511</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE19">
+        <v>482</v>
+      </c>
+      <c r="AF19">
+        <v>40794</v>
+      </c>
+      <c r="AG19">
+        <v>11985</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>161507578710645</v>
+      </c>
+      <c r="AI19">
+        <v>39</v>
+      </c>
     </row>
-    <row r="20" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH20" s="4"/>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20">
+        <v>1060</v>
+      </c>
+      <c r="C20">
+        <v>3475627</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20">
+        <v>-100</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>31</v>
+      </c>
+      <c r="R20">
+        <v>246</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>104</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y20">
+        <v>50</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB20">
+        <v>279511</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE20">
+        <v>162</v>
+      </c>
+      <c r="AF20">
+        <v>29185</v>
+      </c>
+      <c r="AG20">
+        <v>12340</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>161481149425287</v>
+      </c>
+      <c r="AI20">
+        <v>20</v>
+      </c>
     </row>
-    <row r="21" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH21" s="4"/>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21">
+        <v>1060</v>
+      </c>
+      <c r="C21">
+        <v>3475627</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21">
+        <v>-100</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>31</v>
+      </c>
+      <c r="R21">
+        <v>2084</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>104</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y21">
+        <v>50</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB21">
+        <v>279511</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE21">
+        <v>625</v>
+      </c>
+      <c r="AF21">
+        <v>49974</v>
+      </c>
+      <c r="AG21">
+        <v>11525</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>161434885057471</v>
+      </c>
+      <c r="AI21">
+        <v>28</v>
+      </c>
     </row>
-    <row r="22" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH22" s="4"/>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>1060</v>
+      </c>
+      <c r="C22">
+        <v>3475627</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22">
+        <v>-100</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>1968</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y22">
+        <v>50</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB22">
+        <v>279511</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE22">
+        <v>647</v>
+      </c>
+      <c r="AF22">
+        <v>23259</v>
+      </c>
+      <c r="AG22">
+        <v>12264</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>161424603698151</v>
+      </c>
+      <c r="AI22">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH23" s="4"/>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>1060</v>
+      </c>
+      <c r="C23">
+        <v>3475627</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23">
+        <v>-100</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>31</v>
+      </c>
+      <c r="R23">
+        <v>3115</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>104</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y23">
+        <v>50</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB23">
+        <v>279511</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE23">
+        <v>1024</v>
+      </c>
+      <c r="AF23">
+        <v>41309</v>
+      </c>
+      <c r="AG23">
+        <v>12327</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>161383523738131</v>
+      </c>
+      <c r="AI23">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH24" s="4"/>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24">
+        <v>1060</v>
+      </c>
+      <c r="C24">
+        <v>3475627</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24">
+        <v>-100</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>31</v>
+      </c>
+      <c r="R24">
+        <v>2353</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>104</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y24">
+        <v>50</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB24">
+        <v>279511</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE24">
+        <v>476</v>
+      </c>
+      <c r="AF24">
+        <v>45984</v>
+      </c>
+      <c r="AG24">
+        <v>11148</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>161276123938031</v>
+      </c>
+      <c r="AI24">
+        <v>65</v>
+      </c>
     </row>
-    <row r="25" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH25" s="4"/>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <v>1060</v>
+      </c>
+      <c r="C25">
+        <v>3475627</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25">
+        <v>-100</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>105</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>31</v>
+      </c>
+      <c r="R25">
+        <v>1403</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>104</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y25">
+        <v>50</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB25">
+        <v>279511</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE25">
+        <v>997</v>
+      </c>
+      <c r="AF25">
+        <v>16921</v>
+      </c>
+      <c r="AG25">
+        <v>11990</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>161186421789105</v>
+      </c>
+      <c r="AI25">
+        <v>22</v>
+      </c>
     </row>
-    <row r="26" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH26" s="4"/>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26">
+        <v>1060</v>
+      </c>
+      <c r="C26">
+        <v>3475627</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26">
+        <v>-100</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>31</v>
+      </c>
+      <c r="R26">
+        <v>2531</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>104</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y26">
+        <v>50</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB26">
+        <v>279511</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE26">
+        <v>714</v>
+      </c>
+      <c r="AF26">
+        <v>49995</v>
+      </c>
+      <c r="AG26">
+        <v>12529</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>161081267866067</v>
+      </c>
+      <c r="AI26">
+        <v>30</v>
+      </c>
     </row>
-    <row r="27" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH27" s="4"/>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27">
+        <v>1060</v>
+      </c>
+      <c r="C27">
+        <v>3475627</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27">
+        <v>-100</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>31</v>
+      </c>
+      <c r="R27">
+        <v>658</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>104</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y27">
+        <v>50</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB27">
+        <v>279511</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE27">
+        <v>236</v>
+      </c>
+      <c r="AF27">
+        <v>49993</v>
+      </c>
+      <c r="AG27">
+        <v>11303</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>161067785607196</v>
+      </c>
+      <c r="AI27">
+        <v>21</v>
+      </c>
     </row>
-    <row r="28" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH28" s="4"/>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28">
+        <v>1060</v>
+      </c>
+      <c r="C28">
+        <v>3475627</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28">
+        <v>-100</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>1013</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>104</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y28">
+        <v>50</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB28">
+        <v>279511</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE28">
+        <v>599</v>
+      </c>
+      <c r="AF28">
+        <v>42519</v>
+      </c>
+      <c r="AG28">
+        <v>12051</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>160992825087456</v>
+      </c>
+      <c r="AI28">
+        <v>58</v>
+      </c>
     </row>
-    <row r="29" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH29" s="4"/>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29">
+        <v>1060</v>
+      </c>
+      <c r="C29">
+        <v>3475627</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29">
+        <v>-100</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>31</v>
+      </c>
+      <c r="R29">
+        <v>1719</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y29">
+        <v>50</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB29">
+        <v>279511</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE29">
+        <v>181</v>
+      </c>
+      <c r="AF29">
+        <v>22387</v>
+      </c>
+      <c r="AG29">
+        <v>12832</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>160894940529735</v>
+      </c>
+      <c r="AI29">
+        <v>51</v>
+      </c>
     </row>
-    <row r="30" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH30" s="4"/>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>1060</v>
+      </c>
+      <c r="C30">
+        <v>3475627</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30">
+        <v>-100</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>31</v>
+      </c>
+      <c r="R30">
+        <v>439</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>104</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y30">
+        <v>50</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB30">
+        <v>279511</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE30">
+        <v>432</v>
+      </c>
+      <c r="AF30">
+        <v>31085</v>
+      </c>
+      <c r="AG30">
+        <v>12265</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>160856064467766</v>
+      </c>
+      <c r="AI30">
+        <v>18</v>
+      </c>
     </row>
-    <row r="31" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH31" s="4"/>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31">
+        <v>1060</v>
+      </c>
+      <c r="C31">
+        <v>3475627</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31">
+        <v>-100</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>31</v>
+      </c>
+      <c r="R31">
+        <v>817</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>104</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y31">
+        <v>50</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB31">
+        <v>279511</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE31">
+        <v>428</v>
+      </c>
+      <c r="AF31">
+        <v>22128</v>
+      </c>
+      <c r="AG31">
+        <v>12822</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>160624770614693</v>
+      </c>
+      <c r="AI31">
+        <v>43</v>
+      </c>
     </row>
-    <row r="32" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH32" s="4"/>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32">
+        <v>1060</v>
+      </c>
+      <c r="C32">
+        <v>3475627</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32">
+        <v>-100</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <v>3611</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>104</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y32">
+        <v>50</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB32">
+        <v>279511</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE32">
+        <v>70</v>
+      </c>
+      <c r="AF32">
+        <v>22624</v>
+      </c>
+      <c r="AG32">
+        <v>12899</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>160622682158921</v>
+      </c>
+      <c r="AI32">
+        <v>52</v>
+      </c>
     </row>
-    <row r="33" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH33" s="4"/>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33">
+        <v>1060</v>
+      </c>
+      <c r="C33">
+        <v>3475627</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33">
+        <v>-100</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="R33">
+        <v>1560</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>104</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y33">
+        <v>50</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB33">
+        <v>279511</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE33">
+        <v>372</v>
+      </c>
+      <c r="AF33">
+        <v>42924</v>
+      </c>
+      <c r="AG33">
+        <v>10859</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>160602812093953</v>
+      </c>
+      <c r="AI33">
+        <v>66</v>
+      </c>
     </row>
-    <row r="34" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH34" s="4"/>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34">
+        <v>1060</v>
+      </c>
+      <c r="C34">
+        <v>3475627</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34">
+        <v>-100</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>105</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>31</v>
+      </c>
+      <c r="R34">
+        <v>2140</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>104</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y34">
+        <v>50</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB34">
+        <v>279511</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE34">
+        <v>56</v>
+      </c>
+      <c r="AF34">
+        <v>34450</v>
+      </c>
+      <c r="AG34">
+        <v>11666</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>160361828085957</v>
+      </c>
+      <c r="AI34">
+        <v>14</v>
+      </c>
     </row>
-    <row r="35" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH35" s="4"/>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35">
+        <v>1060</v>
+      </c>
+      <c r="C35">
+        <v>3475627</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35">
+        <v>-100</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>31</v>
+      </c>
+      <c r="R35">
+        <v>253</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>104</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y35">
+        <v>50</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB35">
+        <v>279511</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE35">
+        <v>1024</v>
+      </c>
+      <c r="AF35">
+        <v>36037</v>
+      </c>
+      <c r="AG35">
+        <v>11523</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>160233452773613</v>
+      </c>
+      <c r="AI35">
+        <v>47</v>
+      </c>
     </row>
-    <row r="36" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH36" s="4"/>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36">
+        <v>1060</v>
+      </c>
+      <c r="C36">
+        <v>3475627</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36">
+        <v>-100</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>31</v>
+      </c>
+      <c r="R36">
+        <v>698</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>104</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y36">
+        <v>50</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB36">
+        <v>279511</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE36">
+        <v>412</v>
+      </c>
+      <c r="AF36">
+        <v>23029</v>
+      </c>
+      <c r="AG36">
+        <v>12776</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>160149589205397</v>
+      </c>
+      <c r="AI36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH37" s="4"/>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37">
+        <v>1060</v>
+      </c>
+      <c r="C37">
+        <v>3475627</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37">
+        <v>-100</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>105</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+      <c r="R37">
+        <v>885</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>104</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y37">
+        <v>50</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB37">
+        <v>279511</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE37">
+        <v>510</v>
+      </c>
+      <c r="AF37">
+        <v>43266</v>
+      </c>
+      <c r="AG37">
+        <v>11450</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>160073348325837</v>
+      </c>
+      <c r="AI37">
+        <v>46</v>
+      </c>
     </row>
-    <row r="38" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH38" s="4"/>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38">
+        <v>1060</v>
+      </c>
+      <c r="C38">
+        <v>3475627</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38">
+        <v>-100</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>105</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>31</v>
+      </c>
+      <c r="R38">
+        <v>1008</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>104</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y38">
+        <v>50</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB38">
+        <v>279511</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE38">
+        <v>150</v>
+      </c>
+      <c r="AF38">
+        <v>42638</v>
+      </c>
+      <c r="AG38">
+        <v>13778</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>160000696651674</v>
+      </c>
+      <c r="AI38">
+        <v>8</v>
+      </c>
     </row>
-    <row r="39" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH39" s="4"/>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39">
+        <v>1060</v>
+      </c>
+      <c r="C39">
+        <v>3475627</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39">
+        <v>-100</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>105</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>31</v>
+      </c>
+      <c r="R39">
+        <v>439</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>104</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y39">
+        <v>50</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB39">
+        <v>279511</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE39">
+        <v>587</v>
+      </c>
+      <c r="AF39">
+        <v>37025</v>
+      </c>
+      <c r="AG39">
+        <v>11952</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>159941177411294</v>
+      </c>
+      <c r="AI39">
+        <v>19</v>
+      </c>
     </row>
-    <row r="40" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH40" s="4"/>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40">
+        <v>1060</v>
+      </c>
+      <c r="C40">
+        <v>3475627</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40">
+        <v>-100</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>105</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>31</v>
+      </c>
+      <c r="R40">
+        <v>1085</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>104</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y40">
+        <v>50</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB40">
+        <v>279511</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE40">
+        <v>995</v>
+      </c>
+      <c r="AF40">
+        <v>27067</v>
+      </c>
+      <c r="AG40">
+        <v>11761</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>159825843578211</v>
+      </c>
+      <c r="AI40">
+        <v>15</v>
+      </c>
     </row>
-    <row r="41" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH41" s="4"/>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41">
+        <v>1060</v>
+      </c>
+      <c r="C41">
+        <v>3475627</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41">
+        <v>-100</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>105</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>31</v>
+      </c>
+      <c r="R41">
+        <v>1918</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>104</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y41">
+        <v>50</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB41">
+        <v>279511</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE41">
+        <v>438</v>
+      </c>
+      <c r="AF41">
+        <v>27603</v>
+      </c>
+      <c r="AG41">
+        <v>11643</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>159773222888556</v>
+      </c>
+      <c r="AI41">
+        <v>40</v>
+      </c>
     </row>
-    <row r="42" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH42" s="4"/>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42">
+        <v>1060</v>
+      </c>
+      <c r="C42">
+        <v>3475627</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42">
+        <v>-100</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>105</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>31</v>
+      </c>
+      <c r="R42">
+        <v>937</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>104</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y42">
+        <v>50</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB42">
+        <v>279511</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE42">
+        <v>142</v>
+      </c>
+      <c r="AF42">
+        <v>41865</v>
+      </c>
+      <c r="AG42">
+        <v>13099</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>159752177411294</v>
+      </c>
+      <c r="AI42">
+        <v>59</v>
+      </c>
     </row>
-    <row r="43" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH43" s="4"/>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43">
+        <v>1060</v>
+      </c>
+      <c r="C43">
+        <v>3475627</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43">
+        <v>-100</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>105</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>31</v>
+      </c>
+      <c r="R43">
+        <v>934</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>104</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y43">
+        <v>50</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB43">
+        <v>279511</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE43">
+        <v>831</v>
+      </c>
+      <c r="AF43">
+        <v>46409</v>
+      </c>
+      <c r="AG43">
+        <v>13542</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>159536114942529</v>
+      </c>
+      <c r="AI43">
+        <v>10</v>
+      </c>
     </row>
-    <row r="44" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH44" s="4"/>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44">
+        <v>1060</v>
+      </c>
+      <c r="C44">
+        <v>3475627</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44">
+        <v>-100</v>
+      </c>
+      <c r="L44">
+        <v>-1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>31</v>
+      </c>
+      <c r="R44">
+        <v>346</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
+        <v>104</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y44">
+        <v>50</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB44">
+        <v>279511</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE44">
+        <v>243</v>
+      </c>
+      <c r="AF44">
+        <v>26250</v>
+      </c>
+      <c r="AG44">
+        <v>11703</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>159455371814093</v>
+      </c>
+      <c r="AI44">
+        <v>55</v>
+      </c>
     </row>
-    <row r="45" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH45" s="4"/>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45">
+        <v>1060</v>
+      </c>
+      <c r="C45">
+        <v>3475627</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45">
+        <v>-100</v>
+      </c>
+      <c r="L45">
+        <v>-1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>31</v>
+      </c>
+      <c r="R45">
+        <v>2488</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>104</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y45">
+        <v>50</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB45">
+        <v>279511</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE45">
+        <v>287</v>
+      </c>
+      <c r="AF45">
+        <v>23985</v>
+      </c>
+      <c r="AG45">
+        <v>12448</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>159418762618691</v>
+      </c>
+      <c r="AI45">
+        <v>33</v>
+      </c>
     </row>
-    <row r="46" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH46" s="4"/>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46">
+        <v>1060</v>
+      </c>
+      <c r="C46">
+        <v>3475627</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46">
+        <v>-100</v>
+      </c>
+      <c r="L46">
+        <v>-1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>105</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>31</v>
+      </c>
+      <c r="R46">
+        <v>2420</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>104</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y46">
+        <v>50</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB46">
+        <v>279511</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE46">
+        <v>8</v>
+      </c>
+      <c r="AF46">
+        <v>42442</v>
+      </c>
+      <c r="AG46">
+        <v>12535</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>159023715642179</v>
+      </c>
+      <c r="AI46">
+        <v>17</v>
+      </c>
     </row>
-    <row r="47" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH47" s="4"/>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="22">
+        <v>1060</v>
+      </c>
+      <c r="C47" s="22">
+        <v>3475627</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="22">
+        <v>-100</v>
+      </c>
+      <c r="L47" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="22">
+        <v>0</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O47" s="22">
+        <v>0</v>
+      </c>
+      <c r="P47" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>31</v>
+      </c>
+      <c r="R47" s="24">
+        <v>194</v>
+      </c>
+      <c r="S47" s="22">
+        <v>1</v>
+      </c>
+      <c r="T47" s="22">
+        <v>1</v>
+      </c>
+      <c r="U47" s="22">
+        <v>1</v>
+      </c>
+      <c r="V47" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W47" s="22">
+        <v>1</v>
+      </c>
+      <c r="X47" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y47" s="22">
+        <v>50</v>
+      </c>
+      <c r="Z47" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA47" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB47" s="22">
+        <v>279511</v>
+      </c>
+      <c r="AC47" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD47" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE47" s="24">
+        <v>759</v>
+      </c>
+      <c r="AF47" s="24">
+        <v>20645</v>
+      </c>
+      <c r="AG47" s="22">
+        <v>11639</v>
+      </c>
+      <c r="AH47" s="23">
+        <v>159018454272864</v>
+      </c>
+      <c r="AI47" s="22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH48" s="4"/>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48">
+        <v>1060</v>
+      </c>
+      <c r="C48">
+        <v>3475627</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48">
+        <v>-100</v>
+      </c>
+      <c r="L48">
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>31</v>
+      </c>
+      <c r="R48">
+        <v>1326</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48" t="s">
+        <v>104</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y48">
+        <v>50</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB48">
+        <v>279511</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE48">
+        <v>177</v>
+      </c>
+      <c r="AF48">
+        <v>36694</v>
+      </c>
+      <c r="AG48">
+        <v>12254</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>159008326836582</v>
+      </c>
+      <c r="AI48">
+        <v>38</v>
+      </c>
     </row>
-    <row r="49" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH49" s="4"/>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49">
+        <v>1060</v>
+      </c>
+      <c r="C49">
+        <v>3475627</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49">
+        <v>-100</v>
+      </c>
+      <c r="L49">
+        <v>-1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>105</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>31</v>
+      </c>
+      <c r="R49">
+        <v>339</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
+        <v>104</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y49">
+        <v>50</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB49">
+        <v>279511</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE49">
+        <v>247</v>
+      </c>
+      <c r="AF49">
+        <v>32802</v>
+      </c>
+      <c r="AG49">
+        <v>13807</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>158848411294353</v>
+      </c>
+      <c r="AI49">
+        <v>45</v>
+      </c>
     </row>
-    <row r="50" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH50" s="4"/>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50">
+        <v>1060</v>
+      </c>
+      <c r="C50">
+        <v>3475627</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50">
+        <v>-100</v>
+      </c>
+      <c r="L50">
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>105</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>31</v>
+      </c>
+      <c r="R50">
+        <v>278</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>104</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y50">
+        <v>50</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB50">
+        <v>279511</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE50">
+        <v>195</v>
+      </c>
+      <c r="AF50">
+        <v>38968</v>
+      </c>
+      <c r="AG50">
+        <v>11196</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>158506740629685</v>
+      </c>
+      <c r="AI50">
+        <v>64</v>
+      </c>
     </row>
-    <row r="51" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH51" s="4"/>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51">
+        <v>1060</v>
+      </c>
+      <c r="C51">
+        <v>3475627</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51">
+        <v>-100</v>
+      </c>
+      <c r="L51">
+        <v>-1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>31</v>
+      </c>
+      <c r="R51">
+        <v>448</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>104</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y51">
+        <v>50</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB51">
+        <v>279511</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE51">
+        <v>344</v>
+      </c>
+      <c r="AF51">
+        <v>22804</v>
+      </c>
+      <c r="AG51">
+        <v>12135</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>158158528235882</v>
+      </c>
+      <c r="AI51">
+        <v>42</v>
+      </c>
     </row>
-    <row r="52" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH52" s="4"/>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52">
+        <v>1060</v>
+      </c>
+      <c r="C52">
+        <v>3475627</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52">
+        <v>-100</v>
+      </c>
+      <c r="L52">
+        <v>-1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>105</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>31</v>
+      </c>
+      <c r="R52">
+        <v>259</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>104</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y52">
+        <v>50</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB52">
+        <v>279511</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE52">
+        <v>268</v>
+      </c>
+      <c r="AF52">
+        <v>29593</v>
+      </c>
+      <c r="AG52">
+        <v>11459</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>157904121439280</v>
+      </c>
+      <c r="AI52">
+        <v>11</v>
+      </c>
     </row>
-    <row r="53" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH53" s="4"/>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53">
+        <v>1060</v>
+      </c>
+      <c r="C53">
+        <v>3475627</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53">
+        <v>-100</v>
+      </c>
+      <c r="L53">
+        <v>-1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>105</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>31</v>
+      </c>
+      <c r="R53">
+        <v>314</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>104</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y53">
+        <v>50</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB53">
+        <v>279511</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE53">
+        <v>326</v>
+      </c>
+      <c r="AF53">
+        <v>30635</v>
+      </c>
+      <c r="AG53">
+        <v>12615</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>157896999000500</v>
+      </c>
+      <c r="AI53">
+        <v>48</v>
+      </c>
     </row>
-    <row r="54" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH54" s="4"/>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54">
+        <v>1060</v>
+      </c>
+      <c r="C54">
+        <v>3475627</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54">
+        <v>-100</v>
+      </c>
+      <c r="L54">
+        <v>-1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>105</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>31</v>
+      </c>
+      <c r="R54">
+        <v>410</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>104</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y54">
+        <v>50</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB54">
+        <v>279511</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE54">
+        <v>351</v>
+      </c>
+      <c r="AF54">
+        <v>49923</v>
+      </c>
+      <c r="AG54">
+        <v>10735</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>157808003498251</v>
+      </c>
+      <c r="AI54">
+        <v>41</v>
+      </c>
     </row>
-    <row r="55" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH55" s="4"/>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55">
+        <v>1060</v>
+      </c>
+      <c r="C55">
+        <v>3475627</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" t="s">
+        <v>104</v>
+      </c>
+      <c r="J55" t="s">
+        <v>103</v>
+      </c>
+      <c r="K55">
+        <v>-100</v>
+      </c>
+      <c r="L55">
+        <v>-1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>105</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>31</v>
+      </c>
+      <c r="R55">
+        <v>3336</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
+        <v>104</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y55">
+        <v>50</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB55">
+        <v>279511</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE55">
+        <v>911</v>
+      </c>
+      <c r="AF55">
+        <v>21261</v>
+      </c>
+      <c r="AG55">
+        <v>11619</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>157436755122439</v>
+      </c>
+      <c r="AI55">
+        <v>53</v>
+      </c>
     </row>
-    <row r="56" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH56" s="4"/>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1060</v>
+      </c>
+      <c r="C56" s="22">
+        <v>3475627</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56" s="22">
+        <v>-100</v>
+      </c>
+      <c r="L56" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="22">
+        <v>0</v>
+      </c>
+      <c r="N56" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O56" s="22">
+        <v>0</v>
+      </c>
+      <c r="P56" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>31</v>
+      </c>
+      <c r="R56" s="24">
+        <v>226</v>
+      </c>
+      <c r="S56" s="22">
+        <v>1</v>
+      </c>
+      <c r="T56" s="22">
+        <v>1</v>
+      </c>
+      <c r="U56" s="22">
+        <v>1</v>
+      </c>
+      <c r="V56" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W56" s="22">
+        <v>1</v>
+      </c>
+      <c r="X56" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y56" s="22">
+        <v>50</v>
+      </c>
+      <c r="Z56" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA56" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB56" s="22">
+        <v>279511</v>
+      </c>
+      <c r="AC56" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD56" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE56" s="24">
+        <v>621</v>
+      </c>
+      <c r="AF56" s="24">
+        <v>15235</v>
+      </c>
+      <c r="AG56" s="22">
+        <v>13315</v>
+      </c>
+      <c r="AH56" s="23">
+        <v>157194340329835</v>
+      </c>
+      <c r="AI56" s="22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH57" s="4"/>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57">
+        <v>1060</v>
+      </c>
+      <c r="C57">
+        <v>3475627</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57">
+        <v>-100</v>
+      </c>
+      <c r="L57">
+        <v>-1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>105</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>31</v>
+      </c>
+      <c r="R57">
+        <v>845</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>104</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y57">
+        <v>50</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB57">
+        <v>279511</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE57">
+        <v>857</v>
+      </c>
+      <c r="AF57">
+        <v>39418</v>
+      </c>
+      <c r="AG57">
+        <v>11741</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>156901655672164</v>
+      </c>
+      <c r="AI57">
+        <v>54</v>
+      </c>
     </row>
-    <row r="58" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH58" s="4"/>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58">
+        <v>1060</v>
+      </c>
+      <c r="C58">
+        <v>3475627</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58">
+        <v>-100</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>31</v>
+      </c>
+      <c r="R58">
+        <v>416</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>104</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y58">
+        <v>50</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB58">
+        <v>279511</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE58">
+        <v>372</v>
+      </c>
+      <c r="AF58">
+        <v>49990</v>
+      </c>
+      <c r="AG58">
+        <v>12862</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>156824970514743</v>
+      </c>
+      <c r="AI58">
+        <v>26</v>
+      </c>
     </row>
-    <row r="59" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH59" s="4"/>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="22">
+        <v>1060</v>
+      </c>
+      <c r="C59" s="22">
+        <v>3475627</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="22">
+        <v>-100</v>
+      </c>
+      <c r="L59" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="22">
+        <v>0</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O59" s="22">
+        <v>0</v>
+      </c>
+      <c r="P59" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="22">
+        <v>31</v>
+      </c>
+      <c r="R59" s="24">
+        <v>63</v>
+      </c>
+      <c r="S59" s="22">
+        <v>1</v>
+      </c>
+      <c r="T59" s="22">
+        <v>1</v>
+      </c>
+      <c r="U59" s="22">
+        <v>1</v>
+      </c>
+      <c r="V59" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W59" s="22">
+        <v>1</v>
+      </c>
+      <c r="X59" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y59" s="22">
+        <v>50</v>
+      </c>
+      <c r="Z59" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA59" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB59" s="22">
+        <v>279511</v>
+      </c>
+      <c r="AC59" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE59" s="24">
+        <v>116</v>
+      </c>
+      <c r="AF59" s="24">
+        <v>34014</v>
+      </c>
+      <c r="AG59" s="22">
+        <v>11261</v>
+      </c>
+      <c r="AH59" s="23">
+        <v>156516008495752</v>
+      </c>
+      <c r="AI59" s="22">
+        <v>4</v>
+      </c>
     </row>
-    <row r="60" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH60" s="4"/>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60">
+        <v>1060</v>
+      </c>
+      <c r="C60">
+        <v>3475627</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" t="s">
+        <v>104</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+      <c r="K60">
+        <v>-100</v>
+      </c>
+      <c r="L60">
+        <v>-1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>105</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>31</v>
+      </c>
+      <c r="R60">
+        <v>149</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60" t="s">
+        <v>104</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y60">
+        <v>50</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB60">
+        <v>279511</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE60">
+        <v>887</v>
+      </c>
+      <c r="AF60">
+        <v>48584</v>
+      </c>
+      <c r="AG60">
+        <v>11788</v>
+      </c>
+      <c r="AH60" s="4">
+        <v>156185749125437</v>
+      </c>
+      <c r="AI60">
+        <v>13</v>
+      </c>
     </row>
-    <row r="61" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH61" s="4"/>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61">
+        <v>1060</v>
+      </c>
+      <c r="C61">
+        <v>3475627</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" t="s">
+        <v>103</v>
+      </c>
+      <c r="I61" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61">
+        <v>-100</v>
+      </c>
+      <c r="L61">
+        <v>-1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>105</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>31</v>
+      </c>
+      <c r="R61">
+        <v>777</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61" t="s">
+        <v>104</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y61">
+        <v>50</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB61">
+        <v>279511</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE61">
+        <v>82</v>
+      </c>
+      <c r="AF61">
+        <v>28976</v>
+      </c>
+      <c r="AG61">
+        <v>11658</v>
+      </c>
+      <c r="AH61" s="4">
+        <v>154476118940530</v>
+      </c>
+      <c r="AI61">
+        <v>36</v>
+      </c>
     </row>
-    <row r="62" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH62" s="4"/>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62">
+        <v>1060</v>
+      </c>
+      <c r="C62">
+        <v>3475627</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62">
+        <v>-100</v>
+      </c>
+      <c r="L62">
+        <v>-1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>105</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>31</v>
+      </c>
+      <c r="R62">
+        <v>134</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62" t="s">
+        <v>104</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y62">
+        <v>50</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB62">
+        <v>279511</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE62">
+        <v>661</v>
+      </c>
+      <c r="AF62">
+        <v>16723</v>
+      </c>
+      <c r="AG62">
+        <v>12113</v>
+      </c>
+      <c r="AH62" s="4">
+        <v>154127080959520</v>
+      </c>
+      <c r="AI62">
+        <v>7</v>
+      </c>
     </row>
-    <row r="63" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH63" s="4"/>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63">
+        <v>1060</v>
+      </c>
+      <c r="C63">
+        <v>3475627</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63">
+        <v>-100</v>
+      </c>
+      <c r="L63">
+        <v>-1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>105</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>31</v>
+      </c>
+      <c r="R63">
+        <v>280</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63" t="s">
+        <v>104</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y63">
+        <v>50</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB63">
+        <v>279511</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE63">
+        <v>905</v>
+      </c>
+      <c r="AF63">
+        <v>3322</v>
+      </c>
+      <c r="AG63">
+        <v>12724</v>
+      </c>
+      <c r="AH63" s="4">
+        <v>151125123438281</v>
+      </c>
+      <c r="AI63">
+        <v>9</v>
+      </c>
     </row>
-    <row r="64" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH64" s="4"/>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64">
+        <v>1060</v>
+      </c>
+      <c r="C64">
+        <v>3475627</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" t="s">
+        <v>104</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K64">
+        <v>-100</v>
+      </c>
+      <c r="L64">
+        <v>-1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>105</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>31</v>
+      </c>
+      <c r="R64">
+        <v>29</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64" t="s">
+        <v>104</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y64">
+        <v>50</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB64">
+        <v>279511</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE64">
+        <v>253</v>
+      </c>
+      <c r="AF64">
+        <v>10265</v>
+      </c>
+      <c r="AG64">
+        <v>10891</v>
+      </c>
+      <c r="AH64" s="4">
+        <v>148586768115942</v>
+      </c>
+      <c r="AI64">
+        <v>16</v>
+      </c>
     </row>
-    <row r="65" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH65" s="4"/>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>1060</v>
+      </c>
+      <c r="C65">
+        <v>3475627</v>
+      </c>
+      <c r="D65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K65">
+        <v>-100</v>
+      </c>
+      <c r="L65">
+        <v>-1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>105</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>31</v>
+      </c>
+      <c r="R65">
+        <v>147</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65" t="s">
+        <v>104</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y65">
+        <v>50</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB65">
+        <v>279511</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE65">
+        <v>8</v>
+      </c>
+      <c r="AF65">
+        <v>17844</v>
+      </c>
+      <c r="AG65">
+        <v>11877</v>
+      </c>
+      <c r="AH65" s="4">
+        <v>146440850074963</v>
+      </c>
+      <c r="AI65">
+        <v>32</v>
+      </c>
     </row>
-    <row r="66" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH66" s="4"/>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="22">
+        <v>1060</v>
+      </c>
+      <c r="C66" s="22">
+        <v>3475627</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66" s="22">
+        <v>-100</v>
+      </c>
+      <c r="L66" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="22">
+        <v>0</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O66" s="22">
+        <v>0</v>
+      </c>
+      <c r="P66" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>31</v>
+      </c>
+      <c r="R66" s="24">
+        <v>410</v>
+      </c>
+      <c r="S66" s="22">
+        <v>1</v>
+      </c>
+      <c r="T66" s="22">
+        <v>1</v>
+      </c>
+      <c r="U66" s="22">
+        <v>1</v>
+      </c>
+      <c r="V66" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W66" s="22">
+        <v>1</v>
+      </c>
+      <c r="X66" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y66" s="22">
+        <v>50</v>
+      </c>
+      <c r="Z66" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA66" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB66" s="22">
+        <v>279511</v>
+      </c>
+      <c r="AC66" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD66" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE66" s="24">
+        <v>542</v>
+      </c>
+      <c r="AF66" s="24">
+        <v>2127</v>
+      </c>
+      <c r="AG66" s="22">
+        <v>13500</v>
+      </c>
+      <c r="AH66" s="23">
+        <v>144782458770615</v>
+      </c>
+      <c r="AI66" s="22">
+        <v>5</v>
+      </c>
     </row>
-    <row r="67" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH67" s="4"/>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67">
+        <v>1060</v>
+      </c>
+      <c r="C67">
+        <v>3475627</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" t="s">
+        <v>104</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+      <c r="K67">
+        <v>-100</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>105</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>31</v>
+      </c>
+      <c r="R67">
+        <v>1152</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67" t="s">
+        <v>104</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y67">
+        <v>50</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB67">
+        <v>279511</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE67">
+        <v>500</v>
+      </c>
+      <c r="AF67">
+        <v>8456</v>
+      </c>
+      <c r="AG67">
+        <v>13122</v>
+      </c>
+      <c r="AH67" s="4">
+        <v>144647349325337</v>
+      </c>
+      <c r="AI67">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI67" xr:uid="{D469D383-DE4C-4EB3-84E8-ED97B3924408}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI67">
+      <sortCondition descending="1" ref="AH1:AH67"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/German/Clase 14/Performance clase 14.xlsx
+++ b/German/Clase 14/Performance clase 14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Desktop\dmeyf2023\German\Clase 14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00A3B3-AEA3-49A7-839A-5506FCAF83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE7118-9514-4DAE-B1EA-BB4DBD89A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fechas del Experimento" sheetId="6" r:id="rId1"/>
@@ -6970,22 +6970,35 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1050"/>
-              <a:t>Ganancia de BO </a:t>
+              <a:t>Semilla</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1050" baseline="0"/>
-              <a:t>de LGBM en Jul-21 en 66 iteraciones:</a:t>
+              <a:t> 1: </a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050"/>
-            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Score observado en Sep-21 </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1050" baseline="0"/>
-              <a:t>Semilla 1 (279511)</a:t>
+              <a:t>y </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1050"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>Cantidad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t> de Estímulos Enviado:</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6993,7 +7006,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21512027854861052"/>
+          <c:x val="0.14561673853397716"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -7033,10 +7046,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16999847082065808"/>
-          <c:y val="0.11152777777777778"/>
-          <c:w val="0.81888501232377531"/>
-          <c:h val="0.60190039536197204"/>
+          <c:x val="0.12996152485417084"/>
+          <c:y val="0.12715264107611549"/>
+          <c:w val="0.86818285214348201"/>
+          <c:h val="0.64561064632545917"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7047,7 +7060,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ganancia por Iteración'!$B$1:$G$1</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7059,7 +7072,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7075,494 +7090,99 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$A$3:$A$68</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$A$4:$A$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$B$4:$B$68</c:f>
+              <c:f>'Semill búsqueda de la meseta'!$B$4:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>118.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>130.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.00">
+                  <c:v>128.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>124.88500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>121.035</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>120.825</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>120.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.00">
+                  <c:v>119.355</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.00">
+                  <c:v>118.30500000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E220-4C17-A585-79E590329065}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ganancia por Iteración'!$I$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Modelo Ajustado por Inflación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Ganancia por Iteración'!$A$3:$A$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ganancia por Iteración'!$I$3:$I$68</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="66"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E220-4C17-A585-79E590329065}"/>
+              <c16:uniqueId val="{00000000-5E66-49CF-85A3-76216869EF4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7655,7 +7275,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7703,7 +7323,7 @@
         <c:axId val="11533312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="110000000000000.02"/>
+          <c:min val="115"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7741,20 +7361,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>Ganancia Test (millones)</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Score observado </a:t>
                 </a:r>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.2258192457135601E-4"/>
-              <c:y val="0.33001993421708364"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7818,9 +7438,6 @@
         <c:crossAx val="942592416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="billions"/>
-        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7830,47 +7447,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.87691949898667731"/>
-          <c:w val="1"/>
-          <c:h val="0.12267151732615701"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7963,7 +7539,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1050" baseline="0"/>
-              <a:t>Semilla 2 (279523)</a:t>
+              <a:t>Semilla 1 (279511)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1050"/>
           </a:p>
@@ -8055,7 +7631,9 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -8269,7 +7847,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$C$4:$C$68</c:f>
+              <c:f>'Ganancia por Iteración'!$B$4:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="65"/>
@@ -8279,7 +7857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-455A-4CDF-8E1F-FF63FA55B967}"/>
+              <c16:uniqueId val="{00000000-E220-4C17-A585-79E590329065}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8530,7 +8108,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$J$3:$J$68</c:f>
+              <c:f>'Ganancia por Iteración'!$I$3:$I$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="66"/>
@@ -8540,7 +8118,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-455A-4CDF-8E1F-FF63FA55B967}"/>
+              <c16:uniqueId val="{00000001-E220-4C17-A585-79E590329065}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8941,7 +8519,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1050" baseline="0"/>
-              <a:t>Semilla 3 (279541)</a:t>
+              <a:t>Semilla 2 (279523)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1050"/>
           </a:p>
@@ -8951,7 +8529,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25000984417630434"/>
+          <c:x val="0.21512027854861052"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -9247,7 +8825,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$D$4:$D$68</c:f>
+              <c:f>'Ganancia por Iteración'!$C$4:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="65"/>
@@ -9257,7 +8835,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7210-44C9-99D9-93DC4F27F004}"/>
+              <c16:uniqueId val="{00000000-455A-4CDF-8E1F-FF63FA55B967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9508,7 +9086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$K$3:$K$68</c:f>
+              <c:f>'Ganancia por Iteración'!$J$3:$J$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="66"/>
@@ -9518,7 +9096,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7210-44C9-99D9-93DC4F27F004}"/>
+              <c16:uniqueId val="{00000001-455A-4CDF-8E1F-FF63FA55B967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9919,13 +9497,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1050" baseline="0"/>
-              <a:t>Semilla 4 (279551)</a:t>
+              <a:t>Semilla 3 (279541)</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050"/>
-            </a:pPr>
             <a:endParaRPr lang="en-US" sz="1050"/>
           </a:p>
         </c:rich>
@@ -9934,7 +9507,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21512027854861052"/>
+          <c:x val="0.25000984417630434"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -10230,7 +9803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$E$4:$E$68</c:f>
+              <c:f>'Ganancia por Iteración'!$D$4:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="65"/>
@@ -10240,7 +9813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8767-4820-BCE3-BB42CF78BC1D}"/>
+              <c16:uniqueId val="{00000000-7210-44C9-99D9-93DC4F27F004}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10491,7 +10064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$L$3:$L$68</c:f>
+              <c:f>'Ganancia por Iteración'!$K$3:$K$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="66"/>
@@ -10501,7 +10074,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8767-4820-BCE3-BB42CF78BC1D}"/>
+              <c16:uniqueId val="{00000001-7210-44C9-99D9-93DC4F27F004}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10902,7 +10475,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1050" baseline="0"/>
-              <a:t>Semilla 5 (279571)</a:t>
+              <a:t>Semilla 4 (279551)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -10917,7 +10490,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22636236186615002"/>
+          <c:x val="0.21512027854861052"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -11213,7 +10786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$F$4:$F$68</c:f>
+              <c:f>'Ganancia por Iteración'!$E$4:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="65"/>
@@ -11223,7 +10796,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-54C9-4A86-9B73-0FEAD700B600}"/>
+              <c16:uniqueId val="{00000000-8767-4820-BCE3-BB42CF78BC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11474,7 +11047,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ganancia por Iteración'!$M$3:$M$68</c:f>
+              <c:f>'Ganancia por Iteración'!$L$3:$L$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="66"/>
@@ -11484,7 +11057,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-54C9-4A86-9B73-0FEAD700B600}"/>
+              <c16:uniqueId val="{00000001-8767-4820-BCE3-BB42CF78BC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12541,6 +12114,989 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>Ganancia de BO </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t>de LGBM en Jul-21 en 66 iteraciones:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t>Semilla 5 (279571)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22636236186615002"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16999847082065808"/>
+          <c:y val="0.11152777777777778"/>
+          <c:w val="0.81888501232377531"/>
+          <c:h val="0.60190039536197204"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ganancia por Iteración'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ganancia por Iteración'!$A$3:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ganancia por Iteración'!$F$4:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="65"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54C9-4A86-9B73-0FEAD700B600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ganancia por Iteración'!$I$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo Ajustado por Inflación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ganancia por Iteración'!$A$3:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ganancia por Iteración'!$M$3:$M$68</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="66"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54C9-4A86-9B73-0FEAD700B600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="942592416"/>
+        <c:axId val="11533312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="942592416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Estímulos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11533312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11533312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="110000000000000.02"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Ganancia Test (millones)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2258192457135601E-4"/>
+              <c:y val="0.33001993421708364"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="942592416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="billions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.87691949898667731"/>
+          <c:w val="1"/>
+          <c:h val="0.12267151732615701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -18542,6 +19098,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25015,6 +25611,522 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29681,6 +30793,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F8D378-F76E-4751-9B4B-31A71B1CC70D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30185,8 +31335,8 @@
   </sheetPr>
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30734,8 +31884,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E8" sqref="E8"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
@@ -30958,12 +32108,12 @@
   </sheetPr>
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E8" sqref="E8"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34592,7 +35742,7 @@
   </sheetPr>
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
